--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43406</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43224</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43133</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43042</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42860</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19675000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16027000</v>
+      </c>
+      <c r="F8" s="3">
         <v>17388000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20992000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>17741000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15647000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17415000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20888000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17360000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15494000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16770000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>19495000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>16860000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15784000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13162000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11046000</v>
+      </c>
+      <c r="F9" s="3">
         <v>11748000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14252000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12160000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11610000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12038000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14003000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11612000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10268000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11057000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12825000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11060000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10352000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6513000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4981000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5640000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6740000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5581000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4037000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5377000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6885000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5748000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5226000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5713000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6670000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5800000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5432000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,35 +992,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1111000</v>
+      </c>
+      <c r="F14" s="3">
         <v>53000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>623000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>275000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>230000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -996,60 +1034,72 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>464000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>338000</v>
+      </c>
+      <c r="F15" s="3">
         <v>310000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>311000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>302000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>339000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>423000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>336000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>349000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>367000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>358000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>357000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>365000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>388000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17684000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15069000</v>
+      </c>
+      <c r="F17" s="3">
         <v>15830000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18611000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16324000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16215000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16458000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18725000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15895000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14396000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15223000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17113000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>15765000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14515000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>958000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1558000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2381000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1417000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-568000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>957000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2163000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1465000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1098000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1547000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2382000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1095000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1269000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2364000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1904000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2739000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1753000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-166000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1419000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2534000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1851000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1494000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1925000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2762000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1481000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1668000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>179000</v>
+      </c>
+      <c r="F22" s="3">
         <v>178000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>180000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>161000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>158000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>160000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>160000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>159000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>158000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>158000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>160000</v>
       </c>
       <c r="N22" s="3">
         <v>158000</v>
       </c>
       <c r="O22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="P22" s="3">
         <v>158000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="R22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1786000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>775000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1381000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2212000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1255000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-725000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>804000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2010000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1305000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>944000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1387000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2223000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>934000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1110000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F24" s="3">
         <v>332000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>536000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>209000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>97000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>175000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>490000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>317000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>370000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>515000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>804000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>332000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>447000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1049000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1676000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1046000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-822000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>629000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1520000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>988000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>574000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>872000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1419000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>602000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>663000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1046000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1670000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1043000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-819000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>628000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1515000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>985000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>573000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>870000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1413000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>643000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1579,26 +1699,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-2000</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-2000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-20000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-20000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1046000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1670000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1043000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-821000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>628000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1515000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>985000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>553000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>870000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1413000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>643000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1046000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1670000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1043000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-821000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>628000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1515000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>985000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>553000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>870000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1413000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>643000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43770</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43406</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43224</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43133</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43042</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42860</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5955000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>716000</v>
+      </c>
+      <c r="F41" s="3">
         <v>794000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1796000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2973000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>511000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1668000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2251000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1565000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>588000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>743000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1696000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1963000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>558000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2019,35 +2197,41 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>27000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>16000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>15000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>19000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,140 +2274,164 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14283000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13179000</v>
+      </c>
+      <c r="F44" s="3">
         <v>13716000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>13730000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>15026000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12561000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>12365000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>11885000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13204000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>11393000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>12393000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>11407000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12254000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10458000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1423000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1152000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1270000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1336000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1156000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1078000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1330000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1247000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>775000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>858000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>917000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1045000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>965000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21926000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15318000</v>
+      </c>
+      <c r="F46" s="3">
         <v>15662000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16796000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19335000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>14228000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>15138000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15483000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16033000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12772000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14009000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14033000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15276000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12000000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2239,84 +2447,96 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>290000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>87000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>321000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>38000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>137000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>12000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22377000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22560000</v>
+      </c>
+      <c r="F48" s="3">
         <v>22244000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22170000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>22076000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18432000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18923000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>19172000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19500000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19721000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19818000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19762000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19748000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19949000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>303000</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>303000</v>
@@ -2328,34 +2548,40 @@
         <v>303000</v>
       </c>
       <c r="H49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1272000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1271000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1288000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1307000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1327000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1255000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1081000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1082000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1555000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1426000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1505000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1545000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1090000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1092000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1095000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1464000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1591000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1608000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1371000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1365000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45832000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>39471000</v>
+      </c>
+      <c r="F54" s="3">
         <v>39764000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>40695000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>43219000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>34508000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>36713000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>37105000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>38237000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>35291000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>36783000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36668000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>37613000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34408000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10841000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7659000</v>
+      </c>
+      <c r="F57" s="3">
         <v>8822000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9499000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11485000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8279000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9283000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8984000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10104000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6590000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8903000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8649000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9905000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6651000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1604000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2538000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1211000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1009000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1008000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1832000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1117000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>894000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>896000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1431000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>468000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>296000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>295000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1305000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5880000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4985000</v>
+      </c>
+      <c r="F59" s="3">
         <v>5030000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5327000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5288000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4386000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4669000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4703000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4774000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4075000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4367000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4680000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4486000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4018000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18325000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15182000</v>
+      </c>
+      <c r="F60" s="3">
         <v>15063000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15835000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17781000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14497000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15069000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14581000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15774000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12096000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13738000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13625000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14686000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11974000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20200000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>16768000</v>
+      </c>
+      <c r="F61" s="3">
         <v>16635000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>16538000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>16542000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>14391000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>14937000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14948000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15564000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15570000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15788000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15770000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14394000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5591000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5549000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5608000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5682000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5660000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1976000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1790000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1806000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1770000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1758000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1733000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1719000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1626000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1606000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44116000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>37499000</v>
+      </c>
+      <c r="F66" s="3">
         <v>37306000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>38055000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>39983000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30864000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>31319000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>31324000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>32492000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>29418000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31041000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>31132000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32082000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27974000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="F72" s="3">
         <v>2238000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2439000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3095000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3452000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5156000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5517000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5405000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5425000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5289000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5253000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5346000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6241000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2458000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2640000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3236000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3644000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5394000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5781000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5745000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5873000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5742000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5536000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5531000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6434000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43770</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43406</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43224</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43133</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43042</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42860</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1046000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1670000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1043000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-821000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>628000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1515000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>985000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>553000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>870000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1413000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>643000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>381000</v>
+      </c>
+      <c r="F83" s="3">
         <v>345000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>347000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>337000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>401000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>455000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>364000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>387000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>392000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>380000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>379000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>389000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>400000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4450000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F89" s="3">
         <v>528000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1446000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2149000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-605000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1011000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2358000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3429000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-307000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>298000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1779000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3295000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>348000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-557000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-401000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-321000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-205000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-328000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-303000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-319000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-224000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-336000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-311000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-274000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-202000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-347000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-506000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-405000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-327000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-131000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-292000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-308000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-244000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-236000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-369000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-276000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-505000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-291000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-309000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-428000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-382000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-385000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-387000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-390000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-338000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-340000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-341000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-344000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-299000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-304000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-306000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>446000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-203000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>523000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-978000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-436000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3000</v>
       </c>
       <c r="H101" s="3">
         <v>-2000</v>
       </c>
       <c r="I101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5239000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2462000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-583000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>686000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>977000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-155000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-953000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-267000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1405000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-402000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43770</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43406</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43224</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43133</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43042</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42860</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27302000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16027000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17388000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20992000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17741000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15647000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17415000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20888000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17360000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15494000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16770000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19495000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16860000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15784000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17998000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13162000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11046000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11748000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14252000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12160000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11610000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12038000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14003000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11612000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10268000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11057000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12825000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11060000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10352000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9304000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6513000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4981000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5640000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6740000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5581000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4037000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5377000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6885000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5748000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5226000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5713000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6670000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5800000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5432000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,38 +1014,41 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1111000</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>-562000</v>
+      </c>
+      <c r="G14" s="3">
         <v>53000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>623000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>275000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>230000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1040,66 +1059,72 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>464000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E15" s="3">
         <v>326000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>338000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>310000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>311000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>302000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>339000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>423000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>336000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>349000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>367000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>358000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>357000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>365000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>388000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23345000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17684000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15069000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15830000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18611000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16324000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16215000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16458000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18725000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15895000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14396000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15223000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17113000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15765000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14515000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1991000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>958000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1558000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2381000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1417000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-568000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>957000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2163000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1465000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1098000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1547000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2382000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1095000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1269000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7000</v>
       </c>
       <c r="K20" s="3">
         <v>7000</v>
       </c>
       <c r="L20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4333000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2364000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1335000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1904000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2739000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1753000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-166000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1419000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2534000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1851000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1494000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1925000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2762000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1668000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E22" s="3">
         <v>205000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>179000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>178000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>180000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>161000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>158000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>160000</v>
       </c>
       <c r="K22" s="3">
         <v>160000</v>
       </c>
       <c r="L22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="M22" s="3">
         <v>159000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>158000</v>
       </c>
       <c r="N22" s="3">
         <v>158000</v>
       </c>
       <c r="O22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="P22" s="3">
         <v>160000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>158000</v>
       </c>
       <c r="Q22" s="3">
         <v>158000</v>
       </c>
       <c r="R22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="S22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3738000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1786000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>775000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1381000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2212000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1255000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-725000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>804000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2010000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1305000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>944000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1387000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2223000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>934000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1110000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E24" s="3">
         <v>449000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>265000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>332000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>536000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>209000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>97000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>175000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>490000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>317000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>370000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>515000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>804000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>332000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>447000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2828000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1337000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>510000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1049000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1676000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1046000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-822000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>629000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1520000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>988000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>574000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>872000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1419000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>602000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>663000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1333000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>508000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1046000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1670000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1043000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-819000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>628000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1515000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>985000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>573000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>870000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1413000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>643000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1705,11 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1717,11 +1777,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7000</v>
       </c>
       <c r="K32" s="3">
         <v>-7000</v>
       </c>
       <c r="L32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1333000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>508000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1046000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1670000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1043000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-821000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>628000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1515000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>985000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>553000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>870000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1413000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>643000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1333000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>508000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1046000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1670000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1043000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-821000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>628000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1515000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>985000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>553000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>870000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1413000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>643000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43770</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43406</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43224</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43133</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43042</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42860</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,63 +2215,67 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11641000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5955000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>716000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>794000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1796000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2973000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>511000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1668000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2251000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1565000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>588000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>743000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1696000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1963000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>558000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>1085000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -2203,35 +2292,38 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>27000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>17000</v>
       </c>
       <c r="L42" s="3">
         <v>17000</v>
       </c>
       <c r="M42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N42" s="3">
         <v>16000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,158 +2372,170 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13831000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14283000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13179000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13716000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13730000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15026000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12561000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12365000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11885000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13204000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11393000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12393000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11407000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12254000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10458000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1688000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1423000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1152000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1270000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1336000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1156000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1078000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1330000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1247000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>775000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>858000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>917000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>965000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27717000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21926000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15318000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15662000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16796000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19335000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14228000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15138000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15483000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16033000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12772000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14009000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14033000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15276000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12000000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2453,93 +2557,99 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>290000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>321000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>38000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22410000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22377000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22560000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22244000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22170000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22076000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18432000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18923000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19172000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19500000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19721000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19818000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19762000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19748000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19949000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>303000</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
         <v>303000</v>
@@ -2554,34 +2664,37 @@
         <v>303000</v>
       </c>
       <c r="J49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1272000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1271000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1288000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1307000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1327000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1255000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1081000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1082000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1529000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1290000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1555000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1426000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1505000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1545000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1090000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1092000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1095000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1464000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1591000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1608000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1365000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51763000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45832000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39471000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39764000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40695000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43219000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34508000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36713000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37105000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38237000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35291000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36783000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36668000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37613000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34408000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12916000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10841000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7659000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8822000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9499000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11485000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8279000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9283000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8984000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10104000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6590000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8903000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8649000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9905000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6651000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1604000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2538000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1211000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1009000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1008000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1832000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1117000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>894000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>896000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1431000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>468000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>296000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>295000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1305000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6845000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5880000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4985000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5030000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5327000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5288000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4386000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4669000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4703000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4774000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4075000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4367000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4680000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4486000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4018000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21370000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18325000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15182000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15063000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15835000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17781000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14497000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15069000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14581000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15774000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12096000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13738000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13625000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14686000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11974000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20197000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20200000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16768000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16635000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16538000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16542000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14391000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14460000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14937000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14948000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15564000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15570000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15788000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15770000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14394000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5840000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5591000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5549000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5608000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5682000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5660000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1976000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1790000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1806000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1770000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1758000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1733000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1719000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1606000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47407000</v>
+      </c>
+      <c r="E66" s="3">
         <v>44116000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37499000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37306000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38055000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39983000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30864000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31319000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31324000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32492000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29418000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31041000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31132000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32082000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27974000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4134000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1722000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1727000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2238000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2439000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3095000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3452000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5156000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5517000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5405000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5425000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5289000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5253000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5346000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6241000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4356000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1716000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1972000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2458000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2640000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3236000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3644000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5394000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5781000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5745000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5873000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5742000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5536000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5531000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6434000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43770</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43406</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43224</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43133</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43042</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42860</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1333000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>508000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1046000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1670000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1043000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-821000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>628000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1515000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>985000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>553000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>870000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1413000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>643000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E83" s="3">
         <v>373000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>381000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>345000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>347000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>337000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>401000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>455000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>364000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>387000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>392000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>380000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>379000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>389000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7302000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4450000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>185000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>528000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1446000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2149000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-605000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1011000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2358000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3429000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-307000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>298000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1779000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3295000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>348000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-328000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-557000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-401000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-321000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-205000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-328000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-303000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-319000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-224000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-336000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-311000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-274000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-347000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1272000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-288000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-506000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-405000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-327000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-131000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-292000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-308000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-244000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-236000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-369000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-276000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-505000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-291000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-309000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-420000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-423000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-428000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-382000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-385000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-387000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-390000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-338000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-340000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-341000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-344000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-299000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-304000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-306000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1092000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>243000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>446000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-203000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>523000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-978000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-436000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>6000</v>
       </c>
       <c r="P101" s="3">
         <v>6000</v>
       </c>
       <c r="Q101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="R101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5686000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5239000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-78000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2462000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-583000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>686000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>977000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-953000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-267000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1405000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-402000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43770</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43406</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43224</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43133</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43042</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42860</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22309000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27302000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19675000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16027000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17388000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20992000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17741000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15647000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17415000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20888000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17360000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15494000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16770000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19495000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16860000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15784000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15009000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17998000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13162000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11046000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11748000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14252000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12160000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11610000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12038000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14003000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11612000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10268000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11057000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12825000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11060000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10352000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7300000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9304000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6513000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4981000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5640000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6740000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5581000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4037000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5377000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6885000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5748000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5226000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5713000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6670000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5800000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5432000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,41 +1033,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1060000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-562000</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>-1111000</v>
+      </c>
+      <c r="H14" s="3">
         <v>53000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>623000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>275000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>230000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1062,69 +1081,75 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>464000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E15" s="3">
         <v>327000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>326000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>338000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>310000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>311000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>302000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>339000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>423000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>336000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>349000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>367000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>358000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>357000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>365000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>388000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21194000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23345000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17684000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15069000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15830000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18611000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16324000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16215000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16458000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18725000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15895000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14396000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15223000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17113000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15765000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14515000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3957000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1991000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>958000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1558000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2381000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1417000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-568000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>957000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2163000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1465000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1098000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1547000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2382000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1095000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1269000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>7000</v>
       </c>
       <c r="L20" s="3">
         <v>7000</v>
       </c>
       <c r="M20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4333000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2364000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1335000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1904000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2739000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1753000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-166000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1419000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2534000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1851000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1494000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1925000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2762000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1481000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1668000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E22" s="3">
         <v>221000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>205000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>179000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>178000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>180000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>161000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>158000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>160000</v>
       </c>
       <c r="L22" s="3">
         <v>160000</v>
       </c>
       <c r="M22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="N22" s="3">
         <v>159000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>158000</v>
       </c>
       <c r="O22" s="3">
         <v>158000</v>
       </c>
       <c r="P22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>160000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>158000</v>
       </c>
       <c r="R22" s="3">
         <v>158000</v>
       </c>
       <c r="S22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="T22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3738000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1786000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>775000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1381000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2212000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1255000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-725000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>804000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2010000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1305000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>944000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1387000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2223000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>934000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1110000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E24" s="3">
         <v>910000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>449000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>265000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>332000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>536000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>209000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>175000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>490000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>317000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>370000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>515000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>804000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>332000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>447000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2828000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1337000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>510000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1049000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1676000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1046000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-822000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>629000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1520000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>988000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>574000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>872000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>602000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>663000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2816000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1333000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>508000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1046000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1670000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1043000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-819000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>628000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1515000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>985000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>573000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>870000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>643000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,11 +1828,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1780,11 +1840,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-7000</v>
       </c>
       <c r="L32" s="3">
         <v>-7000</v>
       </c>
       <c r="M32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2816000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1333000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>508000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1046000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1670000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1043000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-821000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>628000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1515000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>985000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>553000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>870000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>643000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2816000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1333000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>508000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1046000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1670000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1043000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-821000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>628000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1515000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>985000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>553000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>870000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>643000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43770</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43406</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43224</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43133</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43042</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42860</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,69 +2301,73 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8249000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11641000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5955000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>716000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>794000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1796000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2973000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>511000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1668000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2251000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1565000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>588000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>743000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1696000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1963000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>558000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2295,35 +2384,38 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>27000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>17000</v>
       </c>
       <c r="M42" s="3">
         <v>17000</v>
       </c>
       <c r="N42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O42" s="3">
         <v>16000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,273 +2467,291 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15712000</v>
+      </c>
+      <c r="E44" s="3">
         <v>13831000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14283000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13179000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13716000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13730000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15026000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12561000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12365000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11885000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13204000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11393000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12393000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11407000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12254000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10458000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1505000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1160000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1688000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1423000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1270000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1336000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1156000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1078000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1330000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1247000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>775000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>858000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>917000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1045000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>965000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26916000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27717000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21926000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15318000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15662000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16796000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19335000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14228000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15138000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15483000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16033000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12772000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14009000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14033000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15276000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12000000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>290000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>87000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>321000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22506000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22410000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22377000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22560000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22244000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22170000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22076000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18432000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18923000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19172000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19500000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19721000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19818000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19762000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19748000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19949000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2651,8 +2761,8 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>303000</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>303000</v>
@@ -2667,34 +2777,37 @@
         <v>303000</v>
       </c>
       <c r="K49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1272000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1271000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1288000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1307000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1327000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1081000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1082000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1636000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1529000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1290000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1555000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1426000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1505000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1545000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1090000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1092000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1095000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1464000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1591000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1608000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1371000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1365000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50880000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51763000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45832000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39471000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39764000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40695000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43219000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34508000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36713000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37105000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38237000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35291000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36783000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36668000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37613000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34408000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12759000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12916000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10841000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7659000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8822000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9499000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11485000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8279000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9283000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8984000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10104000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6590000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8903000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8649000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9905000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6651000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1609000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1604000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2538000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1211000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1009000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1008000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1832000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1117000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>894000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>896000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1431000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>468000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>296000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>295000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1305000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6196000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6845000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5880000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4985000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5030000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5327000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5288000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4386000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4669000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4703000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4774000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4075000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4367000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4680000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4486000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4018000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19564000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21370000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18325000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15182000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15063000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15835000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17781000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14497000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15069000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14581000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15774000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12096000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13738000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13625000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14686000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11974000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21185000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20197000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20200000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16768000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16635000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16538000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16542000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14391000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14460000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14937000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14948000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15564000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15570000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15788000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15770000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14394000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6058000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5840000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5591000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5549000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5608000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5682000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5660000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1976000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1790000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1806000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1770000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1758000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1733000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1719000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1626000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1606000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46807000</v>
+      </c>
+      <c r="E66" s="3">
         <v>47407000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44116000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37499000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37306000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38055000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39983000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30864000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31319000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31324000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32492000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29418000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31041000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31132000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32082000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27974000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3942000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4134000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1722000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1727000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2238000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2439000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3095000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3452000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5156000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5517000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5405000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5425000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5289000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5253000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5346000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6241000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4073000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4356000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1716000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1972000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2458000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2640000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3236000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3644000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5394000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5781000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5745000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5873000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5742000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5536000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5531000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6434000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43770</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43406</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43224</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43133</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43042</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42860</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2816000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1333000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>508000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1046000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1670000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1043000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-821000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>628000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1515000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>985000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>553000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>870000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1413000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>643000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E83" s="3">
         <v>374000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>373000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>381000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>345000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>347000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>337000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>401000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>455000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>364000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>387000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>392000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>380000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>379000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>389000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4450000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>185000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>528000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1446000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2149000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-605000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1011000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2358000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3429000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-307000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>298000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1779000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3295000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>348000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-382000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-328000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-557000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-401000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-321000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-205000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-328000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-303000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-319000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-224000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-336000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-311000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-274000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-202000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-347000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1092000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-288000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-506000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-405000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-327000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-131000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-292000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-308000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-244000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-236000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-369000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-276000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-291000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-309000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4847,52 +5080,55 @@
         <v>-416000</v>
       </c>
       <c r="E96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-420000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-423000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-428000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-382000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-385000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-387000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-390000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-338000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-340000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-341000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-344000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-304000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-306000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2033000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-363000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1092000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>243000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>446000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-203000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>523000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-978000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-436000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>6000</v>
       </c>
       <c r="Q101" s="3">
         <v>6000</v>
       </c>
       <c r="R101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="S101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3392000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5686000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5239000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-78000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2462000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-583000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>686000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>977000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-953000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1405000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-402000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
         <v>44134</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43770</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43406</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43224</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43133</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43042</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42951</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42860</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42769</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20311000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22309000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27302000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19675000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16027000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17388000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20992000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17741000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15647000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17415000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20888000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17360000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15494000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16770000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19495000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16860000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15784000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13855000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15009000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17998000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13162000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11046000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11748000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14252000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12160000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11610000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12038000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14003000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11612000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10268000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11057000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12825000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11060000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10352000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6456000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9304000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6513000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4981000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5640000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6740000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5581000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4037000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5377000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6885000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5748000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5226000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5713000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6670000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5800000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5432000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,44 +1052,47 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1060000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10000</v>
       </c>
       <c r="G14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>53000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>623000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>275000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>230000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1084,72 +1103,78 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>464000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E15" s="3">
         <v>355000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>327000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>326000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>338000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>310000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>311000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>302000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>339000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>423000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>336000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>349000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>367000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>358000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>357000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>365000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>388000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18787000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21194000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23345000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17684000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15069000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15830000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18611000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16324000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16215000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16458000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18725000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15895000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14396000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15223000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17113000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15765000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14515000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1115000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3957000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1991000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>958000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1558000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2381000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1417000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-568000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>957000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2163000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1465000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1098000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1547000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2382000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1095000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1269000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>7000</v>
       </c>
       <c r="M20" s="3">
         <v>7000</v>
       </c>
       <c r="N20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1521000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4333000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2364000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1335000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1904000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2739000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1753000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-166000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1419000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2534000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1851000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1494000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1925000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2762000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1481000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1668000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E22" s="3">
         <v>222000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>221000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>205000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>179000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>178000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>180000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>158000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>160000</v>
       </c>
       <c r="M22" s="3">
         <v>160000</v>
       </c>
       <c r="N22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O22" s="3">
         <v>159000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>158000</v>
       </c>
       <c r="P22" s="3">
         <v>158000</v>
       </c>
       <c r="Q22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="R22" s="3">
         <v>160000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>158000</v>
       </c>
       <c r="S22" s="3">
         <v>158000</v>
       </c>
       <c r="T22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="U22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="E23" s="3">
         <v>894000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3738000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1786000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>775000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1381000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2212000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1255000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-725000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>804000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2010000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1305000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>944000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2223000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>934000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1110000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E24" s="3">
         <v>202000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>910000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>449000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>265000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>332000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>536000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>209000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>175000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>490000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>317000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>370000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>515000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>804000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>332000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>447000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E26" s="3">
         <v>692000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2828000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1337000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>510000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1049000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1676000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1046000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-822000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>629000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1520000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>988000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>574000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>872000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1419000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>602000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>663000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E27" s="3">
         <v>689000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2816000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1333000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>508000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1046000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1670000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1043000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-819000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>628000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1515000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>985000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>573000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>870000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1413000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>643000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1891,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1843,11 +1903,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-7000</v>
       </c>
       <c r="M32" s="3">
         <v>-7000</v>
       </c>
       <c r="N32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E33" s="3">
         <v>689000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2816000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1333000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>508000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1046000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1670000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1043000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-821000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>628000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1515000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>985000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>553000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>870000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1413000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>643000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E35" s="3">
         <v>689000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2816000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1333000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>508000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1046000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1670000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1043000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-821000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>628000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1515000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>985000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>553000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>870000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1413000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>643000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
         <v>44134</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43770</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43406</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43224</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43133</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43042</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42951</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42860</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42769</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,75 +2387,79 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8249000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11641000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5955000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>716000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>794000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1796000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2973000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>511000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1668000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2251000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1565000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>588000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>743000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1696000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1963000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>558000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>1450000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2387,35 +2476,38 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>27000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>17000</v>
       </c>
       <c r="N42" s="3">
         <v>17000</v>
       </c>
       <c r="O42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P42" s="3">
         <v>16000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,176 +2562,188 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16193000</v>
+      </c>
+      <c r="E44" s="3">
         <v>15712000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13831000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14283000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13179000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13716000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13730000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15026000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12561000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12365000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11885000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13204000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11393000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12393000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11407000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12254000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10458000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1505000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1160000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1688000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1423000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1270000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1336000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1156000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1078000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1330000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1247000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>775000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>858000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>917000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1045000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>965000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22326000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26916000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27717000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21926000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15318000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15662000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16796000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19335000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14228000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15138000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15483000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16033000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12772000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14009000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14033000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15276000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12000000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,94 +2768,100 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>290000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>87000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>321000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>38000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22987000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22506000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22410000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22377000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22560000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22244000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22170000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22076000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18432000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18923000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19172000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19500000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19721000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19818000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19762000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19748000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19949000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2764,8 +2874,8 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>303000</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>303000</v>
@@ -2780,34 +2890,37 @@
         <v>303000</v>
       </c>
       <c r="L49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1272000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1271000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1288000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1307000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1327000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1255000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1081000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1082000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1458000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1636000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1529000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1290000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1555000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1426000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1505000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1545000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1090000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1092000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1095000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1464000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1591000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1608000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1371000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1365000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50880000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51763000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45832000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39471000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39764000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40695000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43219000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34508000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36713000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37105000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38237000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35291000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36783000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36668000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37613000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34408000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10884000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12759000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12916000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10841000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7659000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8822000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9499000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11485000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8279000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9283000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8984000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10104000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6590000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8903000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8649000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9905000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6651000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E58" s="3">
         <v>609000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1609000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1604000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2538000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1211000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1009000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1008000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1832000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1117000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>894000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>896000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1431000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>468000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>296000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>295000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1305000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6734000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6196000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6845000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5880000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4985000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5030000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5327000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5288000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4386000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4669000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4703000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4774000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4075000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4367000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4680000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4486000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4018000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18730000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19564000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21370000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18325000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15182000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15063000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15835000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17781000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14497000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15069000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14581000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15774000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12096000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13738000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13625000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14686000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11974000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20668000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21185000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20197000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20200000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16768000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16635000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16538000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16542000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14391000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14460000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14937000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14948000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15564000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15570000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15788000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15770000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14394000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6058000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5840000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5591000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5549000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5608000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5682000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5660000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1976000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1790000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1806000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1770000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1758000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1733000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1719000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1626000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1606000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45298000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46807000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47407000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44116000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37499000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37306000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38055000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39983000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30864000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31319000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31324000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32492000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29418000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31041000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31132000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32082000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27974000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3942000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4134000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1722000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1727000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2238000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2439000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3095000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3452000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5156000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5517000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5405000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5425000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5289000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5253000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5346000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6241000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4073000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4356000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1716000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1972000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2458000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2640000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3236000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3644000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5394000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5781000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5745000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5873000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5742000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5536000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5531000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6434000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
         <v>44134</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43770</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43406</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43224</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43133</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43042</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42951</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42860</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42769</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E81" s="3">
         <v>689000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2816000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1333000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>508000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1046000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1670000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1043000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-821000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>628000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1515000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>985000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>553000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>870000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1413000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>643000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E83" s="3">
         <v>405000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>374000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>373000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>381000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>345000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>347000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>337000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>401000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>455000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>364000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>387000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>392000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>380000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>379000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>389000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>400000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-436000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-267000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7302000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4450000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>185000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>528000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1446000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2149000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-605000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1011000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2358000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3429000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-307000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>298000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1779000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3295000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>348000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-619000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-462000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-382000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-328000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-557000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-401000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-321000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-205000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-328000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-303000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-319000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-224000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-336000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-311000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-274000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-202000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-347000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-288000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-506000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-405000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-327000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-131000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-308000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-244000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-236000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-369000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-505000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-291000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-309000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-416000</v>
+        <v>-452000</v>
       </c>
       <c r="E96" s="3">
         <v>-416000</v>
       </c>
       <c r="F96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-420000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-423000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-428000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-382000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-385000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-387000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-390000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-338000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-340000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-341000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-344000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-299000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-304000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-306000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3887000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-363000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1092000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>243000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>446000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-203000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>523000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-978000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-436000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>6000</v>
       </c>
       <c r="R101" s="3">
         <v>6000</v>
       </c>
       <c r="S101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="T101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3559000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5686000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5239000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-78000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2462000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-583000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>686000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>977000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-953000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-267000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1405000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-402000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43770</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43406</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43224</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43133</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43042</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42951</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42860</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42769</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24422000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20311000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22309000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27302000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19675000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16027000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17388000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20992000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17741000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15647000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17415000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20888000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17360000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15494000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16770000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19495000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16860000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15784000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16292000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13855000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15009000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17998000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13162000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11046000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11748000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14252000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12160000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11610000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12038000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14003000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11612000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10268000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11057000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12825000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11060000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10352000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8130000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6456000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7300000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9304000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6513000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4981000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5640000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6740000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5581000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4037000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5377000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6885000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5748000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5226000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5713000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6670000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5800000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5432000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,47 +1071,50 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1073000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>53000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>623000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>275000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>230000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1106,16 +1125,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>464000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,58 +1145,61 @@
         <v>391000</v>
       </c>
       <c r="E15" s="3">
+        <v>391000</v>
+      </c>
+      <c r="F15" s="3">
         <v>355000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>327000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>326000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>338000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>310000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>311000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>302000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>339000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>423000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>336000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>349000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>367000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>358000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>357000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>365000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>388000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21177000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18787000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21194000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23345000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17684000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15069000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15830000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18611000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16324000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16215000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16458000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18725000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15895000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14396000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15223000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17113000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15765000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14515000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3245000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1524000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1115000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3957000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1991000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>958000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1558000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2381000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1417000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-568000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>957000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2163000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1465000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1547000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2382000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1095000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1269000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>7000</v>
       </c>
       <c r="N20" s="3">
         <v>7000</v>
       </c>
       <c r="O20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3685000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1966000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1521000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4333000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2364000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1335000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1904000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2739000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1753000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-166000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1419000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2534000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1851000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1925000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2762000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1481000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1668000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E22" s="3">
         <v>204000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>222000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>221000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>205000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>179000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>178000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>180000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>161000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>158000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>160000</v>
       </c>
       <c r="N22" s="3">
         <v>160000</v>
       </c>
       <c r="O22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="P22" s="3">
         <v>159000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>158000</v>
       </c>
       <c r="Q22" s="3">
         <v>158000</v>
       </c>
       <c r="R22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="S22" s="3">
         <v>160000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>158000</v>
       </c>
       <c r="T22" s="3">
         <v>158000</v>
       </c>
       <c r="U22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="V22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3034000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1320000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>894000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3738000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1786000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>775000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1381000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2212000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1255000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-725000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>804000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2010000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1305000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>944000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1387000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2223000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>934000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1110000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E24" s="3">
         <v>342000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>202000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>910000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>449000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>265000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>332000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>536000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>209000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>175000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>490000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>317000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>370000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>515000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>804000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>332000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>447000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2321000</v>
+      </c>
+      <c r="E26" s="3">
         <v>978000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>692000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2828000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1337000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>510000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1049000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1676000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1046000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-822000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>629000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1520000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>988000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>574000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>872000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1419000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>602000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>663000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E27" s="3">
         <v>974000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>689000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2816000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1333000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>508000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1046000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1670000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1043000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-819000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>628000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1515000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>985000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>573000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>870000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1413000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>643000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,11 +1954,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1906,11 +1966,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-7000</v>
       </c>
       <c r="N32" s="3">
         <v>-7000</v>
       </c>
       <c r="O32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E33" s="3">
         <v>974000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>689000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2816000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1333000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>508000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1046000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1670000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1043000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-821000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>628000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1515000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>985000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>553000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>870000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1413000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>643000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E35" s="3">
         <v>974000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>689000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2816000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1333000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>508000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1046000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1670000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1043000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-821000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>628000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1515000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>985000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>553000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>870000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1413000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>643000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43770</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43406</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43224</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43133</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43042</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42951</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42860</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42769</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,81 +2473,85 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6692000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4690000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8249000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11641000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5955000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>716000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>794000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1796000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2973000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>511000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1668000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2251000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1565000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>588000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>743000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1696000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1963000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>558000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>1450000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2479,35 +2568,38 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>27000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>17000</v>
       </c>
       <c r="O42" s="3">
         <v>17000</v>
       </c>
       <c r="P42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>16000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,185 +2657,197 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18382000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16193000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15712000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13831000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14283000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13179000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13716000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13730000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15026000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12561000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12365000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11885000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13204000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11393000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12393000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11407000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12254000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10458000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1443000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1505000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1160000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1688000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1423000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1152000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1270000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1336000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1156000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1078000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1330000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1247000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>775000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>858000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>917000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1045000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>965000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26816000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22326000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26916000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27717000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21926000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15318000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15662000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16796000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19335000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14228000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15138000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15483000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16033000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12772000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14009000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14033000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15276000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12000000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2771,105 +2875,111 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>290000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>87000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>321000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>38000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>137000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22945000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22506000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22410000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22377000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22560000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22244000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22170000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22076000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18432000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18923000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19172000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19500000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19721000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19818000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19762000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19748000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19949000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>311000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2877,8 +2987,8 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
-        <v>303000</v>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
         <v>303000</v>
@@ -2893,34 +3003,37 @@
         <v>303000</v>
       </c>
       <c r="M49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1272000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1271000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1288000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1327000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1255000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1081000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1082000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1422000</v>
+        <v>575000</v>
       </c>
       <c r="E52" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1458000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1636000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1529000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1290000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1555000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1426000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1505000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1545000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1090000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1092000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1095000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1591000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1608000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1371000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1365000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51200000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50880000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51763000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45832000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39471000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39764000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40695000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43219000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34508000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36713000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37105000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38237000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35291000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36783000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36668000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37613000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34408000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13964000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10884000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12759000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12916000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10841000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7659000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8822000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9499000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11485000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8279000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9283000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8984000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10104000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6590000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8903000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8649000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9905000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6651000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1112000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>609000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1609000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1604000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2538000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1211000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1009000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1008000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1832000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1117000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>894000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>896000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1431000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>468000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>296000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>295000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1305000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7590000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6734000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6196000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6845000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5880000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4985000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5030000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5327000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5288000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4386000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4669000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4703000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4774000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4075000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4367000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4680000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4486000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4018000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22892000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18730000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19564000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21370000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18325000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15182000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15063000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15835000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17781000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14497000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15069000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14581000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15774000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12096000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13738000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13625000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14686000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11974000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21906000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20668000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21185000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20197000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20200000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16768000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16635000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16538000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16542000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14391000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14460000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14937000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14948000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15564000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15570000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15788000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15770000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14394000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5957000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6058000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5840000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5591000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5549000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5608000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5682000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5660000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1976000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1790000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1806000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1770000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1758000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1733000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1719000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1626000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1606000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50755000</v>
+      </c>
+      <c r="E66" s="3">
         <v>45298000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46807000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47407000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44116000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37499000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37306000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38055000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39983000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30864000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31319000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31324000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32492000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29418000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31041000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31132000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32082000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27974000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1117000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3942000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4134000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1722000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1727000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2238000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2439000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3095000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3452000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5156000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5517000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5405000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5425000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5289000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5253000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5346000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6241000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1437000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4073000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4356000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1716000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1972000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2458000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2640000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3236000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3644000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5394000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5781000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5745000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5873000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5742000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5536000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5531000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6434000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43770</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43406</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43224</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43133</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43042</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42951</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42860</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42769</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E81" s="3">
         <v>974000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>689000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2816000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1333000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>508000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1046000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1670000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1043000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-821000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>628000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1515000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>985000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>553000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>870000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1413000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>643000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E83" s="3">
         <v>442000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>405000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>374000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>373000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>381000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>345000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>347000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>337000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>401000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>455000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>364000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>387000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>392000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>380000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>379000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>389000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>400000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4492000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-436000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-267000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7302000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4450000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>185000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>528000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1446000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2149000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-605000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1011000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2358000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3429000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-307000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>298000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1779000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3295000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>348000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-619000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-462000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-382000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-328000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-557000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-401000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-321000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-205000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-328000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-303000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-319000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-224000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-336000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-311000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-274000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-202000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-347000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-477000</v>
+      </c>
+      <c r="E94" s="3">
         <v>758000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-288000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-506000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-405000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-327000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-131000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-308000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-244000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-236000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-276000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-505000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-291000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-309000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-452000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-416000</v>
       </c>
       <c r="F96" s="3">
         <v>-416000</v>
       </c>
       <c r="G96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-420000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-423000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-428000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-382000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-385000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-387000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-390000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-338000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-340000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-341000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-344000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-299000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-304000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-306000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2020000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-363000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1092000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>243000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>446000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-203000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>523000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-978000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-436000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>6000</v>
       </c>
       <c r="S101" s="3">
         <v>6000</v>
       </c>
       <c r="T101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="U101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5686000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5239000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-78000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2462000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-583000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>686000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>977000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-953000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-267000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1405000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-402000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,293 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43770</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43406</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43224</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43133</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43042</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42951</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42860</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42769</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22918000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27570000</v>
+      </c>
+      <c r="F8" s="3">
         <v>24422000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20311000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22309000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>27302000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19675000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>16027000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17388000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>20992000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>17741000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15647000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>17415000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20888000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17360000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>15494000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>16770000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>19495000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>16860000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>15784000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15331000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18258000</v>
+      </c>
+      <c r="F9" s="3">
         <v>16292000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13855000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15009000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>17998000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13162000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11046000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11748000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14252000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12160000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11610000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12038000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14003000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11612000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10268000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11057000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12825000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11060000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10352000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7587000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9312000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8130000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6456000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7300000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9304000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6513000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4981000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5640000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6740000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5581000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4037000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5377000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6885000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5748000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5226000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5713000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6670000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5800000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5432000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +974,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1038,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,53 +1106,59 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1073000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>53000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>623000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>275000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>230000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1128,78 +1166,90 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>464000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>409000</v>
+      </c>
+      <c r="F15" s="3">
         <v>391000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>391000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>355000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>327000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>326000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>338000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>310000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>311000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>302000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>339000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>423000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>336000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>349000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>367000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>358000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>357000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>365000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>388000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1269,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20129000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23360000</v>
+      </c>
+      <c r="F17" s="3">
         <v>21177000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18787000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>21194000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>23345000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17684000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15069000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15830000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18611000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16324000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16215000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>16458000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>18725000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15895000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14396000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>15223000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>17113000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15765000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>14515000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2789000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4210000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3245000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1524000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1115000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3957000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1991000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>958000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1558000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2381000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1417000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-568000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>957000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2163000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1098000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1547000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2382000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1095000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1269000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1431,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3265000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4671000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3685000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1966000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1521000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4333000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2364000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1335000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1904000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2739000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1753000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-166000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1419000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2534000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1494000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1925000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2762000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1481000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1668000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>213000</v>
+      </c>
+      <c r="F22" s="3">
         <v>208000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>204000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>222000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>221000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>205000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>179000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>178000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>180000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>161000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>158000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>160000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>160000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>159000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>158000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>158000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>160000</v>
       </c>
       <c r="T22" s="3">
         <v>158000</v>
       </c>
       <c r="U22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="V22" s="3">
         <v>158000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="X22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2566000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3994000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3034000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1320000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>894000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3738000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1786000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>775000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1381000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2212000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1255000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-725000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>804000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2010000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1305000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>944000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1387000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2223000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>934000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1110000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>976000</v>
+      </c>
+      <c r="F24" s="3">
         <v>713000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>342000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>202000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>910000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>449000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>265000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>332000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>536000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>209000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>97000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>175000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>490000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>317000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>370000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>515000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>804000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>332000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>447000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1835,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3018000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2321000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>978000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>692000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2828000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1337000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>510000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1049000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1676000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1046000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-822000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>629000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1520000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>988000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>574000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>872000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1419000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>602000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>663000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2312000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>974000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>689000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2816000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1333000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>508000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1046000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1670000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1043000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-819000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>628000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1515000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>985000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>573000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>870000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1413000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>600000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>643000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +2039,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,26 +2077,26 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>-2000</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>-2000</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>-20000</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>-20000</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2107,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2175,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2243,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2312000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>974000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>689000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2816000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1333000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>508000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1046000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1670000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1043000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-821000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>628000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1515000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>985000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>553000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>870000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1413000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>600000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>643000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2447,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2312000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>974000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>689000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2816000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1333000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>508000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1046000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1670000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1043000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-821000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>628000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1515000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>985000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>553000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>870000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1413000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>600000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>643000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43770</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43406</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43224</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43133</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43042</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42951</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42860</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42769</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2618,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,90 +2644,98 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6121000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4835000</v>
+      </c>
+      <c r="F41" s="3">
         <v>6692000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4690000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8249000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11641000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5955000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>716000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>794000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1796000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2973000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>511000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1668000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2251000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>588000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>743000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1696000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1963000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>558000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>900000</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>1450000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2571,35 +2749,41 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>27000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>17000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>16000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>15000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>13000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>14000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>19000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,194 +2844,218 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16685000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17322000</v>
+      </c>
+      <c r="F44" s="3">
         <v>18382000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16193000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>15712000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>13831000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14283000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13179000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13716000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13730000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15026000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>12561000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12365000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>11885000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>13204000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>11393000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>12393000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>11407000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>12254000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>10458000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2043000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2026000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1742000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1443000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1505000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1160000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1688000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1423000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1270000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1336000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1156000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1078000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1330000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>775000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>858000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>917000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1045000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>965000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24849000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25083000</v>
+      </c>
+      <c r="F46" s="3">
         <v>26816000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>22326000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>26916000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>27717000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21926000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15318000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15662000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16796000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>19335000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14228000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15138000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15483000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16033000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>12772000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>14009000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>14033000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15276000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>12000000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2878,123 +3086,135 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>290000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>87000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>321000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>27000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>38000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>10000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>137000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>12000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23086000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22851000</v>
+      </c>
+      <c r="F48" s="3">
         <v>22945000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22987000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>22506000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22410000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>22377000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22560000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>22244000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22170000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22076000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18432000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18923000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19172000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19500000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19721000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19818000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>19762000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19748000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>19949000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>853000</v>
+      </c>
+      <c r="F49" s="3">
         <v>864000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>311000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>303000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>303000</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>303000</v>
@@ -3006,34 +3226,40 @@
         <v>303000</v>
       </c>
       <c r="N49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1272000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1271000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1288000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1307000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1327000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1255000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1081000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1082000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3320,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3388,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>617000</v>
+      </c>
+      <c r="F52" s="3">
         <v>575000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1111000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1458000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1636000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1529000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1290000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1555000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1426000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1505000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1545000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1090000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1092000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1095000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1464000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1591000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1608000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1371000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1365000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3524,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49400000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49404000</v>
+      </c>
+      <c r="F54" s="3">
         <v>51200000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>46735000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>50880000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>51763000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>45832000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>39471000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>39764000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>40695000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>43219000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34508000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>36713000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37105000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>38237000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>35291000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>36783000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>36668000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>37613000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>34408000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3622,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3648,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11334000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12011000</v>
+      </c>
+      <c r="F57" s="3">
         <v>13964000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10884000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12759000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12916000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10841000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7659000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8822000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9499000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11485000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8279000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9283000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8984000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10104000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6590000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8903000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>8649000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>9905000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6651000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2344000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1338000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1112000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>609000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1609000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1604000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2538000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1211000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1009000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1008000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1832000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1117000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>894000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>896000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1431000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>468000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>296000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>295000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1305000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7148000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7309000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7590000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6734000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6196000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6845000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5880000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4985000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5030000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5327000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5288000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4386000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4669000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4703000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4774000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4075000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4367000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4680000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4486000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4018000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20834000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21664000</v>
+      </c>
+      <c r="F60" s="3">
         <v>22892000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18730000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19564000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21370000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18325000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15182000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15063000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15835000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17781000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14497000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15069000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14581000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15774000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12096000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>13738000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>13625000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>14686000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11974000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23881000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21967000</v>
+      </c>
+      <c r="F61" s="3">
         <v>21906000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>20668000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>21185000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>20197000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20200000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>16768000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16635000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16538000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16542000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>14391000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14460000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14937000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14948000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15564000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15570000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>15788000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15770000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>14394000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6261000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5948000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5957000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5900000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6058000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5840000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5591000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5549000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5608000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5682000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5660000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1976000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1790000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1806000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1770000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1758000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1733000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1719000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1626000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1606000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +4120,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4188,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4256,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50976000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>49579000</v>
+      </c>
+      <c r="F66" s="3">
         <v>50755000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45298000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>46807000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>47407000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>44116000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>37499000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>37306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>38055000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>39983000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30864000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31319000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31324000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>32492000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>29418000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31041000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>31132000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>32082000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>27974000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4354,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4418,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4486,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4554,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4622,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1913000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="F72" s="3">
         <v>98000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1117000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3942000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4134000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1722000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1727000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2238000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2439000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3095000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3452000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5156000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5517000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5405000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5425000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5289000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5253000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5346000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>6241000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4758,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4826,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4894,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1576000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="F76" s="3">
         <v>445000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1437000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4073000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4356000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1716000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1972000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2458000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2640000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3236000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3644000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5394000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5781000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5745000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5873000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5742000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5536000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5531000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6434000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +5030,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43770</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43406</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43224</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43133</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43042</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42951</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42860</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42769</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2312000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>974000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>689000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2816000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1333000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>508000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1046000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1670000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1043000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-821000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>628000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1515000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>985000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>553000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>870000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1413000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>600000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>643000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5201,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>464000</v>
+      </c>
+      <c r="F83" s="3">
         <v>443000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>442000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>405000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>374000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>373000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>381000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>345000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>347000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>337000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>401000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>455000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>364000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>387000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>392000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>380000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>379000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>389000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>400000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5333,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5401,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5469,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5537,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5605,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2266000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2421000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4492000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-436000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-267000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7302000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4450000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>185000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>528000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1446000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2149000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-605000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1011000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2358000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3429000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-307000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>298000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1779000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3295000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>348000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5703,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-385000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-461000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-619000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-462000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-382000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-328000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-557000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-401000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-321000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-205000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-328000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-303000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-319000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-224000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-336000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-311000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-274000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-202000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-347000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5835,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5903,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1368000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-477000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>758000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-288000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-506000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-405000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-327000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-131000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-292000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-308000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-244000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-369000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-276000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-505000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-291000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-309000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +6001,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-563000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-430000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-440000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-452000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-416000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-416000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-420000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-423000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-428000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-382000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-385000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-387000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-390000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-338000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-340000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-341000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-344000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-299000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-304000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-306000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +6133,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +6201,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6269,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1464000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2907000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-363000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1092000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>243000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>446000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-203000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>523000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-978000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-436000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>19000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3000</v>
       </c>
       <c r="N101" s="3">
         <v>-2000</v>
       </c>
       <c r="O101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1286000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1857000</v>
+      </c>
+      <c r="F102" s="3">
         <v>2002000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5686000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5239000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-78000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2462000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-583000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>686000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>977000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-155000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-953000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-267000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1405000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-402000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43770</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43406</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43224</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43133</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43042</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42951</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42860</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42769</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21339000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22918000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27570000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24422000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20311000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22309000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27302000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19675000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16027000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17388000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20992000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17741000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15647000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17415000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20888000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17360000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15494000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16770000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19495000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16860000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15784000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14312000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15331000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18258000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16292000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13855000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15009000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17998000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13162000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11046000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11748000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14252000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12160000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11610000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12038000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14003000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11612000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10268000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11057000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12825000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11060000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10352000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7027000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7587000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9312000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8130000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6456000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7300000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9304000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6513000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4981000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5640000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6740000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5581000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4037000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5377000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6885000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5748000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5226000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5713000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6670000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5800000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5432000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,56 +1128,59 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>27000</v>
       </c>
       <c r="G14" s="3">
-        <v>3000</v>
+        <v>59000</v>
       </c>
       <c r="H14" s="3">
-        <v>1073000</v>
+        <v>203000</v>
       </c>
       <c r="I14" s="3">
-        <v>10000</v>
+        <v>1361000</v>
       </c>
       <c r="J14" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>623000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>275000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>230000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1172,84 +1191,90 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>464000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E15" s="3">
         <v>425000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>409000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>391000</v>
       </c>
       <c r="G15" s="3">
         <v>391000</v>
       </c>
       <c r="H15" s="3">
+        <v>391000</v>
+      </c>
+      <c r="I15" s="3">
         <v>355000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>327000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>326000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>338000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>310000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>311000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>302000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>339000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>423000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>336000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>349000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>367000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>358000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>357000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>365000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>388000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19490000</v>
+      </c>
+      <c r="E17" s="3">
         <v>20129000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23360000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21177000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18787000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21194000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23345000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17684000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15069000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15830000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18611000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16324000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16215000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16458000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18725000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15895000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14396000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15223000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17113000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15765000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14515000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1849000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2789000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4210000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3245000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1524000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1115000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3957000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1991000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>958000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1558000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2381000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1417000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-568000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>957000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2163000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1465000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1098000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1547000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2382000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1095000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1269000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-3000</v>
       </c>
       <c r="F20" s="3">
         <v>-3000</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>7000</v>
       </c>
       <c r="Q20" s="3">
         <v>7000</v>
       </c>
       <c r="R20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3265000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4671000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3685000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1966000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1521000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4333000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2364000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1335000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1904000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2739000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1753000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-166000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2534000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1851000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1494000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1925000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2762000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1481000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1668000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E22" s="3">
         <v>218000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>213000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>208000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>204000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>222000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>221000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>205000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>179000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>178000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>161000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>158000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>160000</v>
       </c>
       <c r="Q22" s="3">
         <v>160000</v>
       </c>
       <c r="R22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="S22" s="3">
         <v>159000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>158000</v>
       </c>
       <c r="T22" s="3">
         <v>158000</v>
       </c>
       <c r="U22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="V22" s="3">
         <v>160000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>158000</v>
       </c>
       <c r="W22" s="3">
         <v>158000</v>
       </c>
       <c r="X22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2566000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3994000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3034000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1320000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>894000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3738000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1786000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>775000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1381000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2212000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1255000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-725000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>804000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2010000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1305000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>944000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1387000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2223000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>934000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1110000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E24" s="3">
         <v>670000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>976000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>713000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>342000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>202000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>910000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>449000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>265000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>332000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>536000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>209000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>175000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>490000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>317000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>370000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>515000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>804000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>332000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>447000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1896000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3018000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2321000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>978000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>692000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2828000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1337000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>510000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1049000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1676000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1046000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-822000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>629000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1520000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>988000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>574000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>872000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1419000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>602000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>663000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1889000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3007000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2312000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>974000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>689000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2816000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1333000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>508000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1046000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1670000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1043000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-819000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>628000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1515000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>985000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>573000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>870000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1413000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>643000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,11 +2143,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2095,11 +2155,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3000</v>
       </c>
       <c r="F32" s="3">
         <v>3000</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-7000</v>
       </c>
       <c r="Q32" s="3">
         <v>-7000</v>
       </c>
       <c r="R32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1889000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3007000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2312000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>974000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>689000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2816000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1333000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>508000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1046000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1670000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1043000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-821000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>628000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1515000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>985000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>553000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>870000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1413000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>643000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1889000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3007000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2312000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>974000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>689000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2816000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1333000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>508000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1046000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1670000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1043000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-821000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>628000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1515000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>985000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>553000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>870000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1413000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>643000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43770</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43406</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43224</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43133</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43042</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42951</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42860</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42769</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,99 +2731,103 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6121000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4835000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6692000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4690000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8249000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11641000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5955000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>716000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>794000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1796000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2973000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>511000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2251000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1565000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>588000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>743000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1696000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1963000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>558000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>900000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>1450000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2755,35 +2844,38 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>27000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>17000</v>
       </c>
       <c r="R42" s="3">
         <v>17000</v>
       </c>
       <c r="S42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="T42" s="3">
         <v>16000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,212 +2942,224 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17605000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16685000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17322000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18382000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16193000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15712000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13831000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14283000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13179000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13716000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13730000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15026000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12561000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12365000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11885000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13204000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11393000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12393000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11407000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12254000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10458000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2043000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2026000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1742000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1443000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1505000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1160000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1688000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1423000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1152000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1270000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1336000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1156000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1330000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1247000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>775000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>858000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>917000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1045000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>965000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20060000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24849000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25083000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26816000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22326000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26916000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27717000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21926000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15318000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15662000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16796000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19335000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14228000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15138000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15483000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16033000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12772000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14009000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14033000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15276000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12000000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3092,123 +3196,129 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>290000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>87000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>321000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>137000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23179000</v>
+      </c>
+      <c r="E48" s="3">
         <v>23086000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22851000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22945000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22506000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22410000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22377000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22560000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22244000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22170000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22076000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18432000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18923000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19172000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19500000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19721000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19818000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19762000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19748000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19949000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E49" s="3">
         <v>846000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>853000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>864000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>311000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3216,8 +3326,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>303000</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>303000</v>
@@ -3232,34 +3342,37 @@
         <v>303000</v>
       </c>
       <c r="P49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1272000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1271000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1288000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1307000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1327000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1255000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1081000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1082000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E52" s="3">
         <v>619000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>617000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>575000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1111000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1458000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1636000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1529000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1290000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1555000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1426000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1505000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1545000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1090000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1092000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1095000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1464000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1591000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1608000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1371000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1365000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44640000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49400000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49404000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51200000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50880000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51763000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45832000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39471000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39764000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40695000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43219000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34508000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36713000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37105000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38237000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35291000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36783000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36668000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37613000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34408000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11354000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11334000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12011000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13964000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10884000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12759000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12916000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10841000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7659000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8822000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9499000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11485000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8279000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9283000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8984000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10104000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6590000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8903000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8649000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9905000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6651000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2352000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2344000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1338000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1112000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>609000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1609000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1604000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2538000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1211000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1009000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1008000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1832000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>894000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>896000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1431000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>468000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>296000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>295000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1305000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7446000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7148000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7309000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7590000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6734000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6196000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6845000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5880000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4985000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5030000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5327000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5288000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4386000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4669000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4703000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4774000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4075000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4367000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4680000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4486000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4018000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19668000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20834000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21664000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22892000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18730000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21370000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18325000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15182000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15063000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15835000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17781000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14497000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15069000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14581000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15774000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12096000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13738000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13625000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14686000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11974000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23859000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23881000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21967000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21906000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20668000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21185000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20197000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20200000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16768000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16635000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16538000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16542000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14391000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14460000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14937000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14948000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15564000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15570000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15788000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15770000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14394000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5929000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6261000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5948000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5957000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5900000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6058000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5840000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5591000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5549000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5608000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5682000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5660000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1976000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1790000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1806000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1770000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1758000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1733000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1719000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1626000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1606000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49456000</v>
+      </c>
+      <c r="E66" s="3">
         <v>50976000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49579000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50755000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45298000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46807000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47407000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44116000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37499000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37306000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38055000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39983000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30864000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31319000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31324000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32492000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29418000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31041000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31132000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32082000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27974000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5115000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1913000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-460000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>98000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1117000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3942000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1722000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1727000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2238000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2439000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3095000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3452000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5156000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5517000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5405000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5425000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5289000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5253000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5346000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6241000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4816000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1576000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-175000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>445000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1437000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4073000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4356000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1716000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1972000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2458000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2640000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3236000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3644000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5394000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5781000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5745000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5873000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5742000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5536000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5531000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6434000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43770</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43406</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43224</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43133</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43042</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42951</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42860</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42769</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1889000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3007000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2312000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>974000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>689000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2816000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1333000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>508000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1046000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1670000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1043000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-821000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>628000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1515000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>985000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>553000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>870000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1413000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>643000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E83" s="3">
         <v>481000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>464000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>443000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>442000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>405000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>374000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>373000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>381000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>345000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>347000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>337000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>401000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>455000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>364000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>387000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>392000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>380000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>379000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>389000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>400000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2266000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2421000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4492000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-436000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-267000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7302000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4450000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>185000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>528000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1446000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2149000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-605000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2358000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3429000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-307000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>298000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1779000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3295000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>348000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-410000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-385000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-461000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-619000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-462000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-382000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-328000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-557000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-401000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-321000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-205000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-328000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-303000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-319000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-224000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-336000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-311000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-274000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-202000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-347000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="E94" s="3">
         <v>485000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1368000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-477000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>758000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-288000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-506000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-405000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-327000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-131000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-308000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-244000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-236000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-369000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-276000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-505000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-291000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-309000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-563000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-430000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-440000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-452000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-416000</v>
       </c>
       <c r="I96" s="3">
         <v>-416000</v>
       </c>
       <c r="J96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-420000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-423000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-428000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-382000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-385000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-387000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-390000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-338000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-340000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-341000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-344000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-299000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-304000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-306000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5625000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1464000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2907000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-363000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1092000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>243000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>446000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-203000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>523000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-978000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-436000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>19000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>6000</v>
       </c>
       <c r="V101" s="3">
         <v>6000</v>
       </c>
       <c r="W101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="X101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4988000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1286000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1857000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2002000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5686000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5239000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2462000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>686000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>977000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-155000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-953000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-267000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1405000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-402000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,329 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43770</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43406</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43224</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43133</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43042</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42951</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42860</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42769</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27476000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23659000</v>
+      </c>
+      <c r="F8" s="3">
         <v>21339000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22918000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>27570000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>24422000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20311000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>22309000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>27302000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19675000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16027000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17388000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20992000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>17741000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15647000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17415000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20888000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>17360000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15494000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>16770000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>19495000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>16860000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>15784000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18343000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15609000</v>
+      </c>
+      <c r="F9" s="3">
         <v>14312000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15331000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>18258000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16292000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13855000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15009000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17998000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13162000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11046000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11748000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>14252000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12160000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11610000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12038000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>14003000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11612000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10268000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11057000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>12825000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11060000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>10352000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9133000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8050000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7027000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7587000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9312000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8130000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6456000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7300000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9304000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6513000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4981000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5640000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6740000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5581000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4037000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5377000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6885000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5748000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5226000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5713000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6670000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5800000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5432000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,62 +1163,68 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>47000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>203000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1361000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>438000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>53000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>623000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>275000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>230000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1194,87 +1232,99 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>464000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>445000</v>
+      </c>
+      <c r="F15" s="3">
         <v>436000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>425000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>409000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>391000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>391000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>355000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>327000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>326000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>338000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>310000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>311000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>302000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>339000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>423000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>336000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>349000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>367000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>358000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>357000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>365000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>388000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23247000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20357000</v>
+      </c>
+      <c r="F17" s="3">
         <v>19490000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20129000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23360000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>21177000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>18787000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21194000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23345000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17684000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15069000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15830000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18611000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16324000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>16215000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16458000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>18725000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>15895000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14396000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>15223000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>17113000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15765000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>14515000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3302000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1849000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2789000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4210000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3245000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1524000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1115000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3957000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1991000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>958000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1558000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2381000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1417000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-568000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>957000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2163000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1465000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1098000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1547000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2382000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1095000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1269000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1530,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4732000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3799000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2329000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3265000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4671000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3685000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1966000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1521000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4333000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2364000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1335000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1904000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2739000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1753000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-166000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1419000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2534000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1851000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1494000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1925000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2762000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1481000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1668000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>237000</v>
+      </c>
+      <c r="F22" s="3">
         <v>221000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>218000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>213000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>208000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>204000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>222000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>221000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>205000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>179000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>178000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>180000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>161000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>158000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>160000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>160000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>159000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>158000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>158000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>160000</v>
       </c>
       <c r="W22" s="3">
         <v>158000</v>
       </c>
       <c r="X22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>158000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3965000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3059000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1614000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2566000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3994000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3034000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1320000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>894000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3738000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1786000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>775000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1381000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2212000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1255000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-725000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>804000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2010000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1305000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>944000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1387000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2223000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>934000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1110000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>726000</v>
+      </c>
+      <c r="F24" s="3">
         <v>407000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>670000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>976000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>713000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>342000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>202000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>910000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>449000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>265000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>332000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>536000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>209000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>97000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>175000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>490000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>317000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>370000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>515000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>804000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>332000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>447000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2992000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2333000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1207000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1896000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3018000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2321000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>978000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>692000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2828000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1337000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>510000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1049000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1676000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1046000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-822000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>629000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1520000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>988000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>574000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>872000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1419000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>602000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>663000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1202000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1889000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3007000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2312000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>974000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>689000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2816000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>508000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1046000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1670000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1043000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-819000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>628000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1515000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>985000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>573000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>870000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1413000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>600000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>643000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,31 +2219,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2146,26 +2266,26 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>-2000</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>-2000</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-20000</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-20000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="3">
         <v>14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1202000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1889000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3007000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2312000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>974000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>689000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2816000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1333000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>508000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1046000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1670000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1043000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-821000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>628000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1515000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>985000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>553000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>870000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1413000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>600000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>643000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1202000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1889000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3007000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2312000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>974000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>689000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2816000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1333000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>508000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1046000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1670000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1043000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-821000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>628000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1515000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>985000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>553000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>870000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1413000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>600000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>643000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43770</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43406</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43224</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43133</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43042</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42951</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42860</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42769</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2902,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3414000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1133000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6121000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4835000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6692000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4690000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8249000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11641000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5955000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>716000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>794000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1796000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2973000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>511000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1668000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2251000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1565000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>588000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>743000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1696000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1963000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>558000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2814,26 +2992,26 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>900000</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="3">
+        <v>900000</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1450000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2847,35 +3025,41 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>27000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>17000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>17000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>16000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>15000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>13000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>14000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>19000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,221 +3129,245 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19329000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20239000</v>
+      </c>
+      <c r="F44" s="3">
         <v>17605000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>16685000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17322000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>18382000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>16193000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>15712000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13831000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14283000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13179000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13716000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13730000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15026000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>12561000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>12365000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>11885000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>13204000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>11393000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>12393000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>11407000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>12254000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>10458000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1856000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1322000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2043000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2026000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1742000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1443000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1505000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1160000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1688000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1423000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1152000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1270000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1336000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1078000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1330000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1247000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>775000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>858000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>917000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1045000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>965000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22667000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25611000</v>
+      </c>
+      <c r="F46" s="3">
         <v>20060000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24849000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25083000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26816000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>22326000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>26916000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>27717000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>21926000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15318000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15662000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>16796000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>19335000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>14228000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15138000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15483000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16033000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>12772000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>14009000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>14033000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>15276000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>12000000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3199,141 +3407,153 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>290000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>87000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>321000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>27000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>38000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>10000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>137000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>12000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22871000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23021000</v>
+      </c>
+      <c r="F48" s="3">
         <v>23179000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>23086000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>22851000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22945000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>22987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22506000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>22410000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22377000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22560000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>22244000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>22170000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22076000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18432000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>18923000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19172000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>19500000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19721000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>19818000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>19762000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>19748000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>19949000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>833000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>846000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>853000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>864000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>311000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>303000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>303000</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>303000</v>
@@ -3345,34 +3565,40 @@
         <v>303000</v>
       </c>
       <c r="Q49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1272000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1271000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1288000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1307000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1327000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1255000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1081000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1082000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="F52" s="3">
         <v>568000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>619000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>617000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>575000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1111000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1458000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1636000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1529000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1290000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1555000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1426000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1505000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1545000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1090000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1092000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1095000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1464000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1591000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1608000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1371000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1365000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46725000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49725000</v>
+      </c>
+      <c r="F54" s="3">
         <v>44640000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>49400000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>49404000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>51200000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>46735000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>50880000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>51763000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>45832000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>39471000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39764000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>40695000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>43219000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>34508000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>36713000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>37105000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>38237000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>35291000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>36783000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>36668000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>37613000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>34408000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +4038,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12631000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13831000</v>
+      </c>
+      <c r="F57" s="3">
         <v>11354000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11334000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12011000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>13964000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10884000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>12759000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10841000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7659000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8822000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9499000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11485000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8279000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9283000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8984000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10104000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6590000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>8903000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8649000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>9905000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6651000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F58" s="3">
         <v>868000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2352000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2344000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1338000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1112000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>609000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1609000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1604000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2538000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1211000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1009000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1008000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1832000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1117000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>894000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>896000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1431000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>468000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>296000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>295000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1305000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7614000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7879000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7446000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7148000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7309000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7590000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6734000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6196000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6845000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5880000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4985000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5030000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5327000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5288000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4386000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4669000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4703000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4774000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4075000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4367000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4680000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4486000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4018000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20366000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21831000</v>
+      </c>
+      <c r="F60" s="3">
         <v>19668000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20834000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21664000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>22892000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18730000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19564000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21370000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18325000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15182000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15063000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15835000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17781000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14497000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15069000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14581000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15774000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>12096000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>13738000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>13625000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>14686000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>11974000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28763000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>28776000</v>
+      </c>
+      <c r="F61" s="3">
         <v>23859000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>23881000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>21967000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>21906000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20668000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>21185000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20197000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20200000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16768000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16635000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16538000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16542000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14391000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>14460000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>14937000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>14948000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15564000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>15570000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>15788000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>15770000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>14394000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6038000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5995000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5929000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6261000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5948000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5957000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5900000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6058000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5840000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5591000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5549000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5608000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5682000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5660000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1790000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1806000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1770000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1758000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1733000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1719000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1626000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55167000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>56602000</v>
+      </c>
+      <c r="F66" s="3">
         <v>49456000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>50976000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>49579000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>50755000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>45298000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>46807000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>47407000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>44116000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>37499000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>37306000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>38055000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>39983000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>30864000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>31319000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31324000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>32492000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>29418000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>31041000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>31132000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>32082000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>27974000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4987,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +5064,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8895000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7367000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5115000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1913000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-460000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>98000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1117000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3942000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4134000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1722000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1727000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2238000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2439000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3095000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3452000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5156000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5517000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5405000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5425000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5289000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5253000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5346000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>6241000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8442000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6877000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4816000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1576000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-175000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>445000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1437000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4073000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4356000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1716000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1972000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2458000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2640000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3236000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3644000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5394000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5781000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5745000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5873000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5742000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5536000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5531000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6434000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43770</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43406</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43224</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43133</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43042</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42951</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42860</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42769</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1202000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1889000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3007000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2312000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>974000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>689000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2816000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1333000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>508000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1046000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1670000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1043000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-821000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>628000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1515000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>985000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>553000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>870000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1413000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>600000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>643000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>503000</v>
+      </c>
+      <c r="F83" s="3">
         <v>494000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>481000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>464000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>443000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>442000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>405000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>374000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>373000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>381000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>345000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>347000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>337000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>401000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>455000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>364000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>387000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>392000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>380000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>379000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>389000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>400000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3035000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2977000</v>
+      </c>
+      <c r="F89" s="3">
         <v>934000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2266000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2421000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4492000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-436000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-267000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7302000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4450000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>185000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>528000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1446000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2149000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-605000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1011000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2358000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3429000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-307000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>298000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1779000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3295000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>348000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-343000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-597000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-410000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-385000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-461000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-619000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-462000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-382000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-328000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-557000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-401000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-321000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-205000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-303000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-319000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-224000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-336000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-311000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-274000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-202000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-347000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-286000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>485000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1368000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-477000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>758000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-288000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-506000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-405000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-327000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-131000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-308000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-244000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-236000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-369000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-276000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-505000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-291000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-309000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6700,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-551000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-563000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-430000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-440000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-452000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-416000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-416000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-420000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-423000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-428000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-382000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-385000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-387000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-390000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-338000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-340000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-341000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-344000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-299000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-304000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-306000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4568000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-386000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5625000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1464000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2907000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-363000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1092000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>243000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>446000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>523000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-978000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-436000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>19000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q101" s="3">
         <v>-2000</v>
       </c>
       <c r="R101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1932000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2281000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4988000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1286000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1857000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2002000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5686000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5239000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-78000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2462000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-583000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>686000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>977000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-155000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-953000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-267000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1405000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-402000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,342 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43406</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43133</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43042</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42951</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42860</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42769</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23479000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27476000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23659000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21339000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22918000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27570000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24422000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20311000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22309000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27302000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19675000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16027000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17388000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20992000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17741000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15647000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17415000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20888000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17360000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15494000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16770000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19495000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16860000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15784000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15661000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18343000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15609000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14312000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15331000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18258000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16292000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13855000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15009000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17998000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13162000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11046000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11748000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14252000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12160000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11610000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12038000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14003000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11612000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10268000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11057000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12825000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11060000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10352000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7818000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9133000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8050000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7027000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7587000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9312000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8130000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6456000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7300000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9304000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6513000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4981000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5640000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6740000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5581000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4037000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5377000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6885000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5748000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5226000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5713000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6670000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5800000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5432000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1028,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1186,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,54 +1200,54 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>47000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>203000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1361000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>438000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>623000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>275000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>230000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1238,93 +1258,99 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>464000</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E15" s="3">
         <v>449000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>445000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>436000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>425000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>409000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>391000</v>
       </c>
       <c r="J15" s="3">
         <v>391000</v>
       </c>
       <c r="K15" s="3">
+        <v>391000</v>
+      </c>
+      <c r="L15" s="3">
         <v>355000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>327000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>326000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>338000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>310000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>311000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>302000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>339000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>423000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>336000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>349000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>367000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>358000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>357000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>365000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>388000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1375,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22555000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23247000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20357000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19490000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20129000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23360000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21177000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18787000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21194000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23345000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17684000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15069000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15830000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18611000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16324000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16215000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16458000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18725000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15895000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14396000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15223000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17113000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15765000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14515000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4229000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3302000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1849000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2789000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4210000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3245000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1524000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1115000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3957000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1991000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>958000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1558000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2381000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1417000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-568000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>957000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2163000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1465000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1098000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1547000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2382000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1095000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1269000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1565,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3000</v>
       </c>
       <c r="I20" s="3">
         <v>-3000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>7000</v>
       </c>
       <c r="T20" s="3">
         <v>7000</v>
       </c>
       <c r="U20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4732000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3799000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2329000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3265000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4671000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3685000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1966000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1521000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4333000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2364000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1335000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1904000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2739000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1753000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-166000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1419000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2534000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1851000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1494000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1925000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2762000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1481000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1668000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E22" s="3">
         <v>263000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>237000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>221000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>218000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>213000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>208000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>204000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>222000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>221000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>205000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>179000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>178000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>161000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>158000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>160000</v>
       </c>
       <c r="T22" s="3">
         <v>160000</v>
       </c>
       <c r="U22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="V22" s="3">
         <v>159000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>158000</v>
       </c>
       <c r="W22" s="3">
         <v>158000</v>
       </c>
       <c r="X22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>160000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>158000</v>
       </c>
       <c r="Z22" s="3">
         <v>158000</v>
       </c>
       <c r="AA22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3965000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3059000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1614000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2566000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3994000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3034000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1320000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>894000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3738000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1786000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>775000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1381000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2212000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1255000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-725000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>804000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2010000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1305000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>944000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1387000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2223000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>934000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1110000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E24" s="3">
         <v>973000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>726000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>407000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>670000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>976000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>713000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>342000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>202000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>910000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>449000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>265000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>332000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>536000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>209000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>175000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>490000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>317000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>370000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>515000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>804000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>332000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>447000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2043,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2992000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2333000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1207000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1896000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3018000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2321000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>978000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>692000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2828000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1337000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>510000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1049000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1676000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1046000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-822000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>629000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1520000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>988000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>574000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>872000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1419000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>602000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>663000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2983000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2325000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1202000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1889000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3007000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2312000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>974000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>689000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2816000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1333000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>508000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1046000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1043000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-819000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>628000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1515000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>985000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>573000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>870000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1413000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>600000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>643000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2283,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,8 +2312,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2272,11 +2333,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2284,11 +2345,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2302,8 +2363,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2443,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2523,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3000</v>
       </c>
       <c r="I32" s="3">
         <v>3000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-7000</v>
       </c>
       <c r="T32" s="3">
         <v>-7000</v>
       </c>
       <c r="U32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2983000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2325000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1202000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1889000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3007000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2312000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>974000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>689000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2816000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1333000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>508000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1046000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1043000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-821000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>628000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1515000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>985000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>553000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>870000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1413000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>600000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>643000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2763,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2983000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2325000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1202000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1889000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3007000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2312000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>974000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>689000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2816000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1333000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>508000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1046000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1043000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-821000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>628000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1515000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>985000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>553000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>870000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1413000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>600000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>643000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43406</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43224</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43133</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43042</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42951</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42860</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42769</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2960,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2990,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3192000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1482000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3414000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1133000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6121000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4835000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6692000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4690000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8249000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11641000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5955000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>716000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>794000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1796000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2973000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>511000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1668000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2251000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1565000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>588000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>743000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1696000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1963000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>558000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2998,23 +3088,23 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>900000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>1450000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -3031,35 +3121,38 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>27000</v>
-      </c>
-      <c r="T42" s="3">
-        <v>17000</v>
       </c>
       <c r="U42" s="3">
         <v>17000</v>
       </c>
       <c r="V42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="W42" s="3">
         <v>16000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,239 +3228,251 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19817000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19329000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20239000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17605000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16685000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17322000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18382000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16193000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15712000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13831000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14283000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13179000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13716000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13730000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15026000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12561000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12365000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11885000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13204000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11393000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12393000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11407000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12254000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>10458000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1856000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1958000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1322000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2043000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2026000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1742000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1443000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1505000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1160000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1688000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1423000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1152000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1270000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1336000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1156000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1078000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1330000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1247000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>775000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>858000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>917000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1045000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>965000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24991000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22667000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25611000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20060000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24849000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25083000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26816000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22326000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26916000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27717000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21926000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15318000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15662000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16796000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19335000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14228000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15138000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15483000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16033000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12772000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14009000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14033000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15276000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12000000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3413,115 +3518,121 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>290000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>87000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>321000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>38000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>137000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20787000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22871000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23021000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23179000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23086000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22851000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22945000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22987000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22506000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22410000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22377000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22560000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22244000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22170000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22076000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18432000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18923000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19172000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19500000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19721000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19818000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19762000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19748000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>19949000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3531,23 +3642,23 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>833000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>846000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>853000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>864000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>311000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -3555,8 +3666,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>303000</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>303000</v>
@@ -3571,34 +3682,37 @@
         <v>303000</v>
       </c>
       <c r="S49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1272000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1271000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1288000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1307000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1327000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1255000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1081000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1082000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3788,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3868,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1187000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1093000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>568000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>619000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>617000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>575000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1111000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1458000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1636000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1529000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1290000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1555000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1505000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1545000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1090000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1092000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1095000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1464000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1591000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1608000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1371000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1365000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4028,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46973000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46725000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49725000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44640000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49400000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49404000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51200000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46735000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50880000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51763000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45832000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39471000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39764000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40695000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43219000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34508000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36713000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37105000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38237000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35291000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36783000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36668000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37613000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34408000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4140,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4170,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12249000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12631000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13831000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11354000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11334000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12011000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13964000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10884000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12759000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12916000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10841000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7659000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8822000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9499000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11485000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8279000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9283000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8984000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10104000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6590000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8903000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8649000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9905000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6651000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>121000</v>
+        <v>609000</v>
       </c>
       <c r="E58" s="3">
         <v>121000</v>
       </c>
       <c r="F58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="G58" s="3">
         <v>868000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2352000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2344000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1338000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1112000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>609000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1609000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1604000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2538000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1211000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1009000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1008000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1832000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1117000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>894000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>896000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1431000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>468000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>296000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>295000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1305000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8018000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7614000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7879000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7446000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7148000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7309000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7590000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6734000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6196000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6845000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5880000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4985000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5030000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5327000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5288000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4386000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4669000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4703000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4774000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4075000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4367000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4680000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4486000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4018000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20876000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20366000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21831000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19668000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20834000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21664000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22892000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18730000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19564000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21370000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18325000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15182000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15063000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15835000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17781000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14497000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15069000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14581000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15774000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12096000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13738000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13625000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14686000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11974000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32904000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28763000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28776000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23859000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23881000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21967000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21906000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20668000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21185000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20197000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20200000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16768000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16635000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16538000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16542000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14391000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14460000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14937000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14948000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15564000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15570000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15788000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15770000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14394000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6061000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6038000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5995000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5929000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6261000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5948000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5957000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5900000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6058000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5840000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5591000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5549000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5608000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5682000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5660000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1976000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1790000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1806000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1770000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1758000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1733000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1719000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1626000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1606000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4728,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4808,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4888,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59841000</v>
+      </c>
+      <c r="E66" s="3">
         <v>55167000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56602000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49456000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50976000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49579000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50755000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45298000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46807000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47407000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44116000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37499000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37306000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38055000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39983000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30864000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31319000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31324000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32492000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29418000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31041000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31132000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>32082000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>27974000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5000,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5078,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5158,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5238,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5318,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13313000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8895000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7367000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5115000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1913000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-460000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>98000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1117000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3942000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4134000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1722000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1727000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2238000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2439000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3095000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3452000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5156000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5517000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5405000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5425000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5289000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5253000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5346000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6241000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5478,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5558,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5638,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12868000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8442000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6877000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4816000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1576000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-175000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>445000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1437000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4073000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4356000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1716000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1972000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2458000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2640000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3236000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3644000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5394000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5781000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5745000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5873000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5742000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5536000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5531000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6434000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5798,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43406</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43224</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43133</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43042</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42951</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42860</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42769</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2983000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2325000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1202000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1889000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3007000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2312000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>974000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>689000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2816000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1333000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>508000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1046000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1043000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-821000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>628000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1515000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>985000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>553000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>870000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1413000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>600000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>643000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5995,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E83" s="3">
         <v>504000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>503000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>494000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>481000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>464000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>443000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>442000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>405000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>374000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>373000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>381000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>345000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>347000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>337000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>401000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>455000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>364000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>387000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>392000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>380000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>379000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>389000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>400000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6153,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6233,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6313,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6393,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6473,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2126000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3035000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2977000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>934000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2266000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2421000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4492000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-436000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-267000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7302000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4450000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>185000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>528000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1446000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2149000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-605000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1011000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2358000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3429000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-307000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>298000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1779000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3295000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>348000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6585,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-344000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-343000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-597000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-410000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-385000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-461000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-619000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-462000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-382000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-328000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-557000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-401000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-321000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-205000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-328000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-303000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-319000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-224000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-336000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-311000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-274000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-202000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-347000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6743,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6823,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-399000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-310000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-286000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>485000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1368000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-477000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>758000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-288000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-506000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-405000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-327000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-131000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-292000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-308000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-244000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-236000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-369000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-276000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-291000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-309000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6935,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-666000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-524000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-537000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-551000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-563000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-430000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-440000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-452000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-416000</v>
       </c>
       <c r="L96" s="3">
         <v>-416000</v>
       </c>
       <c r="M96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-420000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-423000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-428000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-382000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-385000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-387000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-390000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-338000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-340000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-341000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-344000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-299000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-304000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-306000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7093,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7173,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7253,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4568000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-386000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5625000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1464000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2907000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-363000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1092000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>243000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>446000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-203000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>523000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-978000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-436000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-32000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>19000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>6000</v>
       </c>
       <c r="Y101" s="3">
         <v>6000</v>
       </c>
       <c r="Z101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="AA101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2281000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4988000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1286000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1857000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2002000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5686000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5239000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-78000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2462000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-583000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>686000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>977000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-155000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-953000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1405000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-402000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,354 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
         <v>44862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43406</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43224</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43133</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43042</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42951</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42860</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42769</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22445000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23479000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27476000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23659000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21339000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22918000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27570000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24422000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20311000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22309000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27302000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19675000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16027000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17388000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20992000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17741000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15647000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17415000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20888000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17360000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15494000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16770000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19495000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16860000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15784000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15188000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15661000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18343000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15609000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14312000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15331000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18258000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16292000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13855000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15009000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17998000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13162000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11046000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11748000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14252000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12160000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11610000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12038000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14003000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11612000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10268000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11057000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12825000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11060000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10352000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7257000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7818000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9133000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8050000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7027000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7587000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9312000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6456000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7300000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9304000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6513000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4981000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5640000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6740000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5581000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4037000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5377000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6885000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5748000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5226000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5713000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6670000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5800000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5432000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1041,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1122,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,13 +1205,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1203,54 +1222,54 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>47000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>203000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1361000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>438000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>623000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>275000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>230000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1261,96 +1280,102 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>464000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E15" s="3">
         <v>451000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>449000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>445000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>436000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>425000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>409000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>391000</v>
       </c>
       <c r="K15" s="3">
         <v>391000</v>
       </c>
       <c r="L15" s="3">
+        <v>391000</v>
+      </c>
+      <c r="M15" s="3">
         <v>355000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>327000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>326000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>338000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>310000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>311000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>302000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>339000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>423000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>336000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>349000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>367000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>358000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>357000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>365000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>388000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1376,168 +1401,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20741000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22555000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23247000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20357000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19490000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20129000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23360000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21177000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18787000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21194000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23345000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17684000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15069000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15830000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18611000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16324000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16215000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16458000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18725000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15895000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14396000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15223000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17113000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15765000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14515000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E18" s="3">
         <v>924000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4229000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3302000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1849000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2789000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4210000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3245000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1524000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1115000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3957000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1991000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>958000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1558000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2381000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1417000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-568000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>957000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2163000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1465000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1098000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1547000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2382000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1095000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1269000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1566,408 +1598,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3000</v>
       </c>
       <c r="J20" s="3">
         <v>-3000</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>7000</v>
       </c>
       <c r="U20" s="3">
         <v>7000</v>
       </c>
       <c r="V20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2188000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1436000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4732000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3799000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2329000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3265000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4671000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3685000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1966000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1521000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4333000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2364000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1335000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2739000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1753000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-166000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1419000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2534000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1851000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1494000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1925000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2762000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1481000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1668000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E22" s="3">
         <v>305000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>263000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>237000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>221000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>218000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>213000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>208000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>204000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>222000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>221000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>205000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>179000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>178000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>161000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>158000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>160000</v>
       </c>
       <c r="U22" s="3">
         <v>160000</v>
       </c>
       <c r="V22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="W22" s="3">
         <v>159000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>158000</v>
       </c>
       <c r="X22" s="3">
         <v>158000</v>
       </c>
       <c r="Y22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>160000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>158000</v>
       </c>
       <c r="AA22" s="3">
         <v>158000</v>
       </c>
       <c r="AB22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E23" s="3">
         <v>629000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3965000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3059000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1614000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2566000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3994000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3034000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1320000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>894000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3738000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1786000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>775000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1381000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2212000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1255000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-725000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>804000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2010000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1305000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>944000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1387000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2223000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>934000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1110000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E24" s="3">
         <v>475000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>973000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>726000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>407000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>670000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>976000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>713000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>342000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>202000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>910000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>449000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>265000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>332000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>536000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>209000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>175000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>490000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>317000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>370000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>515000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>804000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>332000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>447000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2046,168 +2094,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E26" s="3">
         <v>154000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2992000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2333000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1207000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1896000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3018000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2321000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>978000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>692000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2828000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1337000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>510000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1676000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1046000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-822000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>629000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1520000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>988000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>574000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>872000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1419000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>602000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>663000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E27" s="3">
         <v>152000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2983000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2325000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1202000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1889000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3007000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2312000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>974000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>689000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2816000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1333000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>508000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1670000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1043000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-819000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>628000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1515000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>985000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>573000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>870000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1413000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>600000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>643000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2286,8 +2343,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2315,8 +2375,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2336,11 +2396,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2348,11 +2408,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-20000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2366,8 +2426,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2446,8 +2509,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2526,168 +2592,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3000</v>
       </c>
       <c r="J32" s="3">
         <v>3000</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-7000</v>
       </c>
       <c r="U32" s="3">
         <v>-7000</v>
       </c>
       <c r="V32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E33" s="3">
         <v>152000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2983000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2325000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1202000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1889000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3007000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2312000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>974000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>689000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2816000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1333000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>508000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1670000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1043000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-821000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>628000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1515000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>985000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>553000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>870000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1413000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>600000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>643000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2766,173 +2841,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E35" s="3">
         <v>152000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2983000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2325000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1202000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1889000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3007000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2312000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>974000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>689000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2816000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1333000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>508000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1670000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1043000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-821000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>628000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1515000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>985000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>553000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>870000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1413000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>600000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>643000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
         <v>44862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43406</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43224</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43133</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43042</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42951</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42860</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42769</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2961,8 +3045,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2991,88 +3076,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3192000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1482000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3414000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1133000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6121000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4835000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6692000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4690000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8249000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11641000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5955000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>716000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>794000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1796000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2973000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>511000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1668000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2251000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1565000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>588000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>743000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1696000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1963000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>558000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3091,23 +3180,23 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>900000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>1450000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -3124,35 +3213,38 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>27000</v>
-      </c>
-      <c r="U42" s="3">
-        <v>17000</v>
       </c>
       <c r="V42" s="3">
         <v>17000</v>
       </c>
       <c r="W42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="X42" s="3">
         <v>16000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>13000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3231,271 +3323,283 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18532000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19817000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19329000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20239000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17605000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16685000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17322000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18382000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16193000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15712000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13831000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14283000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13179000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13716000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13730000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15026000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12561000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12365000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11885000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13204000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11393000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12393000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11407000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12254000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>10458000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1982000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1856000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1958000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1322000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2043000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2026000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1742000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1443000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1505000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1160000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1688000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1423000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1270000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1336000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1156000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1078000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1330000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1247000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>775000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>858000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>917000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1045000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>965000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21442000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24991000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22667000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25611000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20060000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24849000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25083000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26816000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22326000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26916000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27717000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15318000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15662000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16796000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19335000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14228000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15138000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15483000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16033000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12772000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14009000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14033000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15276000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12000000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>21000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3521,118 +3625,124 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>290000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>87000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>321000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>38000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>10000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>137000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21085000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20787000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22871000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23021000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23179000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23086000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22851000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22945000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22987000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22506000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22410000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22377000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22560000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22244000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22170000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22076000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18432000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18923000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19172000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19500000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19721000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19818000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19762000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>19748000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>19949000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3645,23 +3755,23 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>833000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>846000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>853000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>864000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>311000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3669,8 +3779,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>303000</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>303000</v>
@@ -3685,34 +3795,37 @@
         <v>303000</v>
       </c>
       <c r="T49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="U49" s="3">
         <v>1272000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1271000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1288000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1307000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1327000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1255000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1081000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1082000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3791,8 +3904,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3871,88 +3987,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1195000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1187000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1093000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>568000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>619000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>617000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>575000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1111000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1458000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1636000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1529000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1290000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1555000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1426000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1505000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1545000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1090000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1092000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1095000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1464000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1591000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1608000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1371000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1365000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4031,88 +4153,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43708000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46973000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46725000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49725000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44640000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49400000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49404000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51200000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46735000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50880000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51763000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45832000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39471000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39764000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40695000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43219000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34508000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36713000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37105000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38237000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35291000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36783000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>36668000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37613000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>34408000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4141,8 +4269,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4171,488 +4300,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10524000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12249000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12631000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13831000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11354000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11334000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12011000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13964000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10884000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12759000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12916000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10841000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7659000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8822000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9499000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11485000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8279000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9283000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8984000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10104000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6590000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8903000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8649000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9905000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6651000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E58" s="3">
         <v>609000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>121000</v>
       </c>
       <c r="F58" s="3">
         <v>121000</v>
       </c>
       <c r="G58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="H58" s="3">
         <v>868000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2352000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2344000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1338000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1112000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>609000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1609000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1604000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2538000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1211000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1009000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1008000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1832000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1117000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>894000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>896000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1431000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>468000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>296000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>295000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1305000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7903000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8018000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7614000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7879000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7446000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7148000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7309000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7590000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6734000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6196000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6845000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5880000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4985000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5030000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5327000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5288000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4386000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4669000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4703000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4774000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4075000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4367000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4680000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4486000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4018000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19511000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20876000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20366000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21831000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19668000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20834000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21664000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22892000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18730000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19564000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21370000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18325000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15182000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15063000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15835000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17781000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14497000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15069000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14581000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15774000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12096000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13738000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13625000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14686000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11974000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32876000</v>
+      </c>
+      <c r="E61" s="3">
         <v>32904000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28763000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28776000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23859000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23881000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21967000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21906000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20668000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21185000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20197000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20200000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16768000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16635000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16538000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16542000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14391000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14460000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14937000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14948000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15564000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15570000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15788000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15770000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14394000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5575000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6061000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6038000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5995000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5929000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6261000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5948000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5957000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5900000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6058000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5840000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5591000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5549000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5608000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5682000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5660000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1976000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1790000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1806000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1770000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1758000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1733000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1719000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1626000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1606000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4731,8 +4879,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4811,8 +4962,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4891,88 +5045,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57962000</v>
+      </c>
+      <c r="E66" s="3">
         <v>59841000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55167000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56602000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49456000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50976000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49579000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50755000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45298000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46807000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47407000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44116000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37499000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37306000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38055000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39983000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30864000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31319000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31324000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32492000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>29418000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31041000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31132000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>32082000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>27974000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5001,8 +5161,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5081,8 +5242,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5161,8 +5325,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5241,8 +5408,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5321,88 +5491,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14862000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13313000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8895000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7367000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5115000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1913000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-460000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>98000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1117000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3942000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4134000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1722000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1727000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2238000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2439000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3095000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3452000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5156000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5517000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5405000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5425000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5289000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5253000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5346000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6241000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5481,8 +5657,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5561,8 +5740,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5641,88 +5823,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14254000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12868000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8442000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6877000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4816000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1576000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-175000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>445000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1437000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4073000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4356000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1716000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1972000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2458000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2640000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3236000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3644000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5394000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5781000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5745000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5873000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5742000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5536000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5531000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6434000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5801,173 +5989,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
         <v>44862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43770</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43406</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43224</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43133</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43042</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42951</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42860</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42769</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>954000</v>
+      </c>
+      <c r="E81" s="3">
         <v>152000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2983000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2325000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1202000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1889000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3007000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2312000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>974000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>689000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2816000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1333000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>508000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1670000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1043000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-821000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>628000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1515000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>985000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>553000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>870000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1413000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>600000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>643000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5996,88 +6193,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E83" s="3">
         <v>502000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>504000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>503000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>494000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>481000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>464000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>443000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>442000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>405000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>374000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>373000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>381000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>345000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>347000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>337000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>401000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>455000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>364000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>387000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>392000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>380000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>379000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>389000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>400000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6156,8 +6357,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6236,8 +6440,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6316,8 +6523,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6396,8 +6606,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6476,88 +6689,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2126000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3035000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2977000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>934000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2266000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2421000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4492000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-436000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-267000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7302000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4450000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>185000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>528000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1446000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2149000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-605000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1011000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2358000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3429000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-307000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>298000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1779000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3295000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>348000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6586,88 +6805,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-739000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-403000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-344000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-343000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-597000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-410000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-385000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-461000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-619000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-462000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-382000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-328000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-557000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-401000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-321000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-205000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-328000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-303000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-319000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-224000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-336000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-311000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-274000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-347000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6746,8 +6969,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6826,88 +7052,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-406000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-399000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-310000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-286000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>485000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1368000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-477000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>758000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-288000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-506000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-405000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-327000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-131000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-292000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-308000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-244000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-236000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-369000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-276000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-291000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-309000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6936,88 +7168,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-643000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-666000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-524000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-537000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-551000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-563000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-430000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-440000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-452000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-416000</v>
       </c>
       <c r="M96" s="3">
         <v>-416000</v>
       </c>
       <c r="N96" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-420000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-423000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-428000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-382000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-385000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-387000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-390000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-338000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-340000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-341000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-344000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-299000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-304000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-306000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7096,8 +7332,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7176,8 +7415,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7256,244 +7498,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2117000</v>
+      </c>
+      <c r="E100" s="3">
         <v>22000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4568000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-386000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5625000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1464000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2907000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-363000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1092000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>243000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>446000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-203000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>523000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-978000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-436000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-32000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>6000</v>
       </c>
       <c r="Z101" s="3">
         <v>6000</v>
       </c>
       <c r="AA101" s="3">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="AB101" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1844000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1710000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2281000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4988000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1286000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1857000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2002000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5686000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5239000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-78000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2462000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-583000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>686000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>977000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-155000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-953000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-267000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1405000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-402000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1028000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>LOW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,378 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F7" s="2">
         <v>44960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43406</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43224</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43133</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43042</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42951</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42860</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42769</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24956000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22347000</v>
+      </c>
+      <c r="F8" s="3">
         <v>22445000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>23479000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>27476000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>23659000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>21339000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>22918000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>27570000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>24422000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20311000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22309000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>27302000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>19675000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>16027000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17388000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20992000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>17741000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15647000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>17415000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>20888000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>17360000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>15494000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>16770000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>19495000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>16860000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>15784000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>15739000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16557000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14820000</v>
+      </c>
+      <c r="F9" s="3">
         <v>15188000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15661000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>18343000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15609000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14312000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15331000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18258000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16292000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13855000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15009000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17998000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>13162000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11046000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11748000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>14252000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12160000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11610000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12038000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>14003000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11612000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>10268000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>11057000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>12825000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>11060000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>10352000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>10332000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8399000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7527000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7257000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7818000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9133000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8050000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7027000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7587000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9312000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8130000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6456000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7300000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9304000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6513000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4981000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5640000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6740000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5581000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4037000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5377000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6885000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5748000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5226000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5713000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>6670000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>5800000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>5432000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>5407000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1066,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1151,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,74 +1240,80 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>47000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>59000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>203000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1361000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>438000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-1111000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>53000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>623000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>275000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>230000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1283,99 +1321,111 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>464000</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>415000</v>
+      </c>
+      <c r="F15" s="3">
         <v>421000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>451000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>449000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>445000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>436000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>425000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>409000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>391000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>391000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>355000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>327000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>326000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>338000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>310000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>311000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>302000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>339000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>423000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>336000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>349000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>367000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>358000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>357000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>365000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>388000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>378000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1402,174 +1452,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21070000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19059000</v>
+      </c>
+      <c r="F17" s="3">
         <v>20741000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22555000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23247000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20357000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19490000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>20129000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23360000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21177000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18787000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21194000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>23345000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17684000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15069000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>15830000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>18611000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>16324000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>16215000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>16458000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>18725000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15895000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>14396000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>15223000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>17113000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>15765000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>14515000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>14800000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3288000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1704000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>924000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4229000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3302000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1849000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2789000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4210000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3245000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1524000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1115000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3957000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1991000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>958000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1558000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2381000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1417000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-568000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>957000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2163000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1465000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1098000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1547000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2382000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1095000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1269000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>939000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1599,423 +1663,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4395000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3766000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2188000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1436000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4732000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3799000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2329000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3265000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4671000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3685000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1966000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1521000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4333000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2364000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1904000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2739000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1753000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-166000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1419000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2534000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1851000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1494000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1925000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2762000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1481000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1668000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>1351000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>362000</v>
+      </c>
+      <c r="F22" s="3">
         <v>333000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>305000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>263000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>237000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>221000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>218000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>213000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>208000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>204000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>222000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>221000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>205000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>179000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>178000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>180000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>161000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>158000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>160000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>160000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>159000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>158000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>158000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>160000</v>
       </c>
       <c r="AA22" s="3">
         <v>158000</v>
       </c>
       <c r="AB22" s="3">
+        <v>160000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>158000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3545000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2939000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1383000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>629000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3965000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3059000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1614000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2566000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3994000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3034000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1320000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>894000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3738000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1786000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>775000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1381000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2212000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1255000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-725000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>804000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2010000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1305000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>944000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1387000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2223000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>934000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1110000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>776000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>679000</v>
+      </c>
+      <c r="F24" s="3">
         <v>425000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>475000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>973000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>726000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>407000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>670000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>976000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>713000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>342000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>202000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>910000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>449000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>265000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>332000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>536000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>209000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>97000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>175000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>490000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>317000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>370000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>515000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>804000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>332000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>447000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>397000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,174 +2193,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2673000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="F26" s="3">
         <v>958000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>154000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2992000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2333000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1207000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1896000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3018000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2321000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>978000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>692000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2828000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1337000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>510000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1049000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1676000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1046000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-822000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>629000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1520000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>988000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>574000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>872000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1419000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>602000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>663000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>379000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="F27" s="3">
         <v>954000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>152000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2983000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2325000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1202000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1889000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3007000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2312000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>974000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>689000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2816000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1333000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>508000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1046000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1670000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1043000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-819000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>628000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1515000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>985000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>573000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>870000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1413000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>600000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>643000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2346,8 +2460,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2378,11 +2498,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2399,26 +2519,26 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-2000</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-2000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>-20000</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>-20000</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2429,8 +2549,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2512,8 +2638,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2595,174 +2727,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>3000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="F33" s="3">
         <v>954000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>152000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2983000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2325000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1202000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1889000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3007000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2312000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>974000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>689000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2816000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1333000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>508000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1046000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1670000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1043000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-821000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>628000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1515000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>985000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>553000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>870000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1413000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>600000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>643000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2844,179 +2994,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="F35" s="3">
         <v>954000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>152000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2983000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2325000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1202000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1889000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3007000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2312000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>974000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>689000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2816000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1333000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>508000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1046000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1670000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1043000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-821000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>628000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1515000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>985000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>553000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>870000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1413000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>600000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>643000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F38" s="2">
         <v>44960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43406</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43224</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43133</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43042</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42951</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42860</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42769</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3046,8 +3214,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3077,132 +3247,140 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3494000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1348000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3192000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1482000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3414000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1133000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6121000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4835000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6692000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4690000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8249000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11641000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5955000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>716000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>794000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1796000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2973000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>511000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1668000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2251000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1565000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>588000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>743000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1696000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1963000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>558000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>960000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>900000</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>1450000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1085000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -3216,35 +3394,41 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>27000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>17000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>17000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>16000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>15000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>13000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>14000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>19000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3326,268 +3510,292 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17422000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19522000</v>
+      </c>
+      <c r="F44" s="3">
         <v>18532000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>19817000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19329000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>20239000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>17605000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>16685000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17322000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>18382000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16193000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>15712000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13831000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>14283000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>13179000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>13716000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>13730000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15026000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>12561000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>12365000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>11885000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>13204000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>11393000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>12393000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>11407000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>12254000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>10458000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>10990000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1562000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1982000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1856000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1958000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1322000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2043000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2026000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1742000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1443000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1505000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1160000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1688000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1423000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1152000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1270000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1336000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1156000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1078000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1330000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1247000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>775000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>858000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>917000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1045000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>965000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>708000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22236000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23918000</v>
+      </c>
+      <c r="F46" s="3">
         <v>21442000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24991000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22667000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25611000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20060000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>24849000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25083000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26816000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>22326000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>26916000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27717000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>21926000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15318000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15662000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>16796000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>19335000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>14228000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15138000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>15483000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>16033000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>12772000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>14009000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>14033000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>15276000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>12000000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>12728000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>21000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>21000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -3601,11 +3809,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3628,121 +3836,133 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>290000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>87000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>321000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>27000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>38000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>10000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>137000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>12000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21023000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20906000</v>
+      </c>
+      <c r="F48" s="3">
         <v>21085000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>20787000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>22871000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>23021000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>23179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>23086000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>22851000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22945000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22987000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>22506000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>22410000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22377000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>22560000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>22244000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>22170000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>22076000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>18432000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>18923000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>19172000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>19500000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>19721000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>19818000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>19762000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>19748000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>19949000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>20037000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3758,35 +3978,35 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>833000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>846000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>853000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>864000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>311000</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>303000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>303000</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>303000</v>
@@ -3798,34 +4018,40 @@
         <v>303000</v>
       </c>
       <c r="U49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="V49" s="3">
+        <v>303000</v>
+      </c>
+      <c r="W49" s="3">
         <v>1272000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1271000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1288000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1307000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1327000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1255000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1081000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1082000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3907,8 +4133,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3990,91 +4222,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1160000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1195000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1187000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1093000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>568000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>619000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>617000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>575000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1111000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1458000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1636000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1529000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1290000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1555000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1426000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1505000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1545000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1090000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1092000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1095000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1464000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1591000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1608000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1371000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>1365000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>1483000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4156,91 +4400,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44521000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45917000</v>
+      </c>
+      <c r="F54" s="3">
         <v>43708000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>46973000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>46725000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>49725000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>44640000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>49400000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49404000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>51200000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>46735000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>50880000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>51763000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>45832000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>39471000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>39764000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>40695000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>43219000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>34508000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>36713000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>37105000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>38237000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>35291000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>36783000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>36668000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>37613000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>34408000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>35370000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4270,8 +4526,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4301,506 +4559,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10333000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11885000</v>
+      </c>
+      <c r="F57" s="3">
         <v>10524000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12249000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12631000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>13831000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11354000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11334000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12011000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13964000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10884000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12759000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12916000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10841000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7659000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8822000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9499000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11485000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>8279000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9283000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8984000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>10104000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6590000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>8903000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>8649000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>9905000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6651000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>7836000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>661000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1084000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>609000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>121000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>121000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>868000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2352000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2344000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1338000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1112000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>609000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1609000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1604000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2538000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1211000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1009000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1008000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1832000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1117000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>894000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>896000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1431000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>468000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>296000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>295000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1305000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>800000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6687000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6664000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7903000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8018000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7614000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7879000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7446000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7148000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7309000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7590000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6734000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6196000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6845000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5880000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4985000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5030000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5327000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5288000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4386000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4669000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4703000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4774000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4075000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4367000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4680000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4486000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>4018000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>3997000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17612000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19210000</v>
+      </c>
+      <c r="F60" s="3">
         <v>19511000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20876000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20366000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21831000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19668000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>20834000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21664000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>22892000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>18730000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19564000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21370000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18325000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15182000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15063000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15835000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17781000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>14497000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15069000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>14581000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>15774000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>12096000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>13738000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>13625000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>14686000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>11974000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>12633000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35839000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>35863000</v>
+      </c>
+      <c r="F61" s="3">
         <v>32876000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>32904000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>28763000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>28776000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>23859000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>23881000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>21967000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21906000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>20668000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>21185000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>20197000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>20200000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16768000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16635000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>16538000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>16542000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>14391000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>14460000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>14937000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>14948000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>15564000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15570000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>15788000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>15770000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>14394000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>14395000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5802000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5554000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5575000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6061000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6038000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5995000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5929000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6261000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5948000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5957000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5900000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6058000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5840000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5591000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5549000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>5608000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>5682000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5660000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1976000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1790000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1806000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1770000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1758000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1733000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1719000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1626000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1606000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>1634000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4882,8 +5178,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4965,8 +5267,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5048,91 +5356,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59253000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>60627000</v>
+      </c>
+      <c r="F66" s="3">
         <v>57962000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>59841000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>55167000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>56602000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>49456000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>50976000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>49579000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>50755000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>45298000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>46807000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>47407000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>44116000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>37499000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>37306000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>38055000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>39983000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>30864000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>31319000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>31324000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>32492000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>29418000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>31041000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>31132000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>32082000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>27974000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>28771000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5162,8 +5482,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5245,8 +5567,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5328,8 +5656,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5411,8 +5745,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5494,91 +5834,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15341000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15310000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14862000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13313000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8895000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7367000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5115000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1913000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-460000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>98000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1117000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3942000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4134000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1722000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1727000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2238000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2439000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3095000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3452000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5156000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5517000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5405000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5425000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5289000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5253000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5346000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>6241000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>6376000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5660,8 +6012,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5743,8 +6101,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5826,91 +6190,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14732000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-14710000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-14254000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-12868000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8442000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6877000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4816000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1576000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-175000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>445000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1437000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4073000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4356000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1716000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1972000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2458000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2640000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3236000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3644000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5394000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5781000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5745000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5873000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5742000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5536000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5531000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>6434000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>6599000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5992,179 +6368,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F80" s="2">
         <v>44960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43406</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43224</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43133</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43042</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42951</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42860</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42769</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="F81" s="3">
         <v>954000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>152000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2983000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2325000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1202000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1889000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3007000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2312000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>974000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>689000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2816000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1333000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>508000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1046000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1670000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1043000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-821000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>628000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1515000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>985000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>553000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>870000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1413000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>600000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>643000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>376000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6194,91 +6588,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>465000</v>
+      </c>
+      <c r="F83" s="3">
         <v>472000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>502000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>504000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>503000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>494000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>481000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>464000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>443000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>442000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>405000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>374000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>373000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>381000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>345000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>347000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>337000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>401000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>455000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>364000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>387000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>392000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>380000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>379000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>389000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>400000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>412000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6360,8 +6762,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6443,8 +6851,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6526,8 +6940,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6609,8 +7029,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6692,91 +7118,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3862000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2106000</v>
+      </c>
+      <c r="F89" s="3">
         <v>451000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2126000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3035000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2977000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>934000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2266000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2421000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4492000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-436000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-267000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7302000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4450000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>185000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>528000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1446000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2149000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-605000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1011000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2358000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3429000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-307000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>298000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1779000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>3295000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>348000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>641000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6806,91 +7244,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-385000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-380000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-739000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-403000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-344000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-343000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-597000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-410000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-385000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-461000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-619000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-462000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-382000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-328000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-557000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-401000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-321000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-205000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-328000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-303000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-319000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-224000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-336000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-311000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-274000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-202000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-347000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-330000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6972,8 +7418,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7055,91 +7507,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-411000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-194000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-406000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-399000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-310000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-286000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>485000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1368000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-477000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>758000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1092000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1272000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-288000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-506000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-405000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-327000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-131000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-292000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-308000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-244000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-236000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-369000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-276000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-505000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-291000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-309000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-118000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7169,91 +7633,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-624000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-643000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-666000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-524000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-537000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-551000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-563000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-430000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-440000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-452000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-416000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-416000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-420000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-423000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-428000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-382000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-385000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-387000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-390000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-338000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-340000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-341000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-344000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-299000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-304000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-306000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-309000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7335,8 +7807,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7418,8 +7896,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7501,253 +7985,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2907000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2117000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>22000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4568000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-386000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-5625000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1464000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2907000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2020000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3887000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2033000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-363000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1092000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>243000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2297000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>446000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-203000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1284000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2215000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>523000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-978000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-1547000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1605000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-436000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-1546000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>19000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-15000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-3000</v>
       </c>
       <c r="U101" s="3">
         <v>-2000</v>
       </c>
       <c r="V101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>6000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1844000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1710000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2281000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4988000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1286000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1857000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2002000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3559000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3392000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5686000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5239000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1002000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1177000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2462000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1103000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-583000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>686000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>977000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-155000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-953000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-267000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1405000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-402000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-1028000</v>
       </c>
     </row>
